--- a/tool/3_公式/number.xlsx
+++ b/tool/3_公式/number.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="lcd4bit" sheetId="12" r:id="rId1"/>
@@ -15,13 +15,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+  <si>
+    <t>_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_</t>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_HV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -29,229 +77,198 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_HV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>LED37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.04s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复位</t>
+  </si>
+  <si>
+    <t>LED01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子模块使能</t>
+  </si>
+  <si>
+    <t>LED02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无 中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡出,淡入,闪烁,15mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.08s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.16s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.26s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡出,淡入,不闪烁,15mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺省值地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不淡出,不淡入,不闪烁,15mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resv</t>
+  </si>
+  <si>
+    <t>mh</t>
+  </si>
+  <si>
+    <t>ml</t>
   </si>
   <si>
     <t>_V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.04s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0~16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0~255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复位</t>
-  </si>
-  <si>
-    <t>LED01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子模块使能</t>
-  </si>
-  <si>
-    <t>LED02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无 中断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淡出,淡入,闪烁,15mA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.08s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.16s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.26s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淡出,淡入,不闪烁,15mA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺省值地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不淡出,不淡入,不闪烁,15mA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,9 +277,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="&quot;0x&quot;\ General"/>
+    <numFmt numFmtId="176" formatCode="&quot;0x&quot;\ General"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +311,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -362,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -379,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -387,6 +419,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -691,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -704,480 +741,490 @@
     <col min="4" max="7" width="4.88671875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>3</v>
+      </c>
+      <c r="R2" s="2">
+        <v>2</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1">
+        <f>HEX2DEC(A3)</f>
+        <v>208</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <f>(MOD($B3,2^D$2)-MOD(MOD($B3,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <f>(MOD($B3,2^E$2)-MOD(MOD($B3,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <f>(MOD($B3,2^F$2)-MOD(MOD($B3,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f>(MOD($B3,2^G$2)-MOD(MOD($B3,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <f>(MOD($B3,2^H$2)-MOD(MOD($B3,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <f>(MOD($B3,2^I$2)-MOD(MOD($B3,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <f>(MOD($B3,2^J$2)-MOD(MOD($B3,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <f>(MOD($B3,2^K$2)-MOD(MOD($B3,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <f>HEX2DEC(M3)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <f>(MOD($N3,2^H$2)-MOD(MOD($N3,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>(MOD($N3,2^I$2)-MOD(MOD($N3,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <f>(MOD($N3,2^J$2)-MOD(MOD($N3,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <f>(MOD($N3,2^K$2)-MOD(MOD($N3,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6">
+        <f>(MOD($B4,2^D$2)-MOD(MOD($B4,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <f>(MOD($B4,2^E$2)-MOD(MOD($B4,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <f>(MOD($B4,2^F$2)-MOD(MOD($B4,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <f>(MOD($B4,2^G$2)-MOD(MOD($B4,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <f>(MOD($B4,2^H$2)-MOD(MOD($B4,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f>(MOD($B4,2^I$2)-MOD(MOD($B4,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <f>(MOD($B4,2^J$2)-MOD(MOD($B4,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <f>(MOD($B4,2^K$2)-MOD(MOD($B4,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>8</v>
+      </c>
+      <c r="N4" s="1">
+        <f>HEX2DEC(M4)</f>
+        <v>8</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="5">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5">
-        <v>7</v>
-      </c>
-      <c r="F1" s="5">
-        <v>6</v>
-      </c>
-      <c r="G1" s="5">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2">
-        <v>3</v>
-      </c>
-      <c r="J1" s="2">
-        <v>2</v>
-      </c>
-      <c r="K1" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <f>HEX2DEC(A2)</f>
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <f t="shared" ref="D2:K6" si="0">(MOD($B2,2^D$1)-MOD(MOD($B2,2^D$1),2^(D$1-1)))/2^(D$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I2" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J2" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <f>HEX2DEC(A4)</f>
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="P4" s="3">
+        <f>(MOD($N4,2^H$2)-MOD(MOD($N4,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>(MOD($N4,2^I$2)-MOD(MOD($N4,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <f>(MOD($N4,2^J$2)-MOD(MOD($N4,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <f>(MOD($N4,2^K$2)-MOD(MOD($N4,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B5" s="1">
         <f>HEX2DEC(A5)</f>
+        <v>192</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <f>(MOD($B5,2^D$2)-MOD(MOD($B5,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <f>(MOD($B5,2^E$2)-MOD(MOD($B5,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <f>(MOD($B5,2^F$2)-MOD(MOD($B5,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <f>(MOD($B5,2^G$2)-MOD(MOD($B5,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <f>(MOD($B5,2^H$2)-MOD(MOD($B5,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <f>(MOD($B5,2^I$2)-MOD(MOD($B5,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <f>(MOD($B5,2^J$2)-MOD(MOD($B5,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <f>(MOD($B5,2^K$2)-MOD(MOD($B5,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N5" s="1">
+        <f>HEX2DEC(M5)</f>
+        <v>4</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="3">
+        <f>(MOD($N5,2^H$2)-MOD(MOD($N5,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>(MOD($N5,2^I$2)-MOD(MOD($N5,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="R5" s="3">
+        <f>(MOD($N5,2^J$2)-MOD(MOD($N5,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <f>(MOD($N5,2^K$2)-MOD(MOD($N5,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
         <f>HEX2DEC(A6)</f>
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="0"/>
+        <f>(MOD($B6,2^D$2)-MOD(MOD($B6,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
         <v>0</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(MOD($B6,2^E$2)-MOD(MOD($B6,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <v>1</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="0"/>
+        <f>(MOD($B6,2^F$2)-MOD(MOD($B6,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <f>(MOD($B6,2^H$1)-MOD(MOD($B6,2^H$1),2^(H$1-1)))/2^(H$1-1)</f>
+        <f>(MOD($B6,2^G$2)-MOD(MOD($B6,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f>(MOD($B6,2^H$2)-MOD(MOD($B6,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
         <v>0</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>(MOD($B6,2^I$2)-MOD(MOD($B6,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <f>(MOD($B6,2^J$2)-MOD(MOD($B6,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <v>0</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1" t="s">
+        <f>(MOD($B6,2^K$2)-MOD(MOD($B6,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="N6" s="1">
+        <f>HEX2DEC(M6)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="8" t="s">
+      <c r="O6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="4">
+        <f>(MOD($N6,2^H$2)-MOD(MOD($N6,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>(MOD($N6,2^I$2)-MOD(MOD($N6,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="R6" s="3">
+        <f>(MOD($N6,2^J$2)-MOD(MOD($N6,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <f>(MOD($N6,2^K$2)-MOD(MOD($N6,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1">
+        <f>HEX2DEC(A7)</f>
+        <v>96</v>
+      </c>
+      <c r="D7" s="6">
+        <f>(MOD($B7,2^D$2)-MOD(MOD($B7,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <f>(MOD($B7,2^E$2)-MOD(MOD($B7,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <f>(MOD($B7,2^F$2)-MOD(MOD($B7,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <f>(MOD($B7,2^G$2)-MOD(MOD($B7,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f>(MOD($B7,2^H$2)-MOD(MOD($B7,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <f>(MOD($B7,2^I$2)-MOD(MOD($B7,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f>(MOD($B7,2^J$2)-MOD(MOD($B7,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <f>(MOD($B7,2^K$2)-MOD(MOD($B7,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1">
+        <f>HEX2DEC(A8)</f>
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5">
-        <v>7</v>
-      </c>
-      <c r="F9" s="5">
-        <v>6</v>
-      </c>
-      <c r="G9" s="5">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>4</v>
-      </c>
-      <c r="I9" s="2">
-        <v>3</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
-        <f>HEX2DEC(A10)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" ref="D10:K13" si="1">(MOD($B10,2^D$1)-MOD(MOD($B10,2^D$1),2^(D$1-1)))/2^(D$1-1)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <f>HEX2DEC(A11)</f>
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <f>(MOD($B11,2^H$1)-MOD(MOD($B11,2^H$1),2^(H$1-1)))/2^(H$1-1)</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1">
-        <f>HEX2DEC(A12)</f>
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1">
-        <f>HEX2DEC(A13)</f>
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>20</v>
+      <c r="D8" s="7">
+        <f>(MOD($B8,2^D$2)-MOD(MOD($B8,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <f>(MOD($B8,2^E$2)-MOD(MOD($B8,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <f>(MOD($B8,2^F$2)-MOD(MOD($B8,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <f>(MOD($B8,2^G$2)-MOD(MOD($B8,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <f>(MOD($B8,2^H$2)-MOD(MOD($B8,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <f>(MOD($B8,2^I$2)-MOD(MOD($B8,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <f>(MOD($B8,2^J$2)-MOD(MOD($B8,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <f>(MOD($B8,2^K$2)-MOD(MOD($B8,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>98</v>
+      </c>
+      <c r="B9" s="1">
+        <f>HEX2DEC(A9)</f>
+        <v>152</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7">
+        <f>(MOD($B9,2^D$2)-MOD(MOD($B9,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <f>(MOD($B9,2^E$2)-MOD(MOD($B9,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <f>(MOD($B9,2^F$2)-MOD(MOD($B9,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <f>(MOD($B9,2^G$2)-MOD(MOD($B9,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <f>(MOD($B9,2^H$2)-MOD(MOD($B9,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <f>(MOD($B9,2^I$2)-MOD(MOD($B9,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <f>(MOD($B9,2^J$2)-MOD(MOD($B9,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <f>(MOD($B9,2^K$2)-MOD(MOD($B9,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1188,38 +1235,38 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" ref="D17:K21" si="2">(MOD($B17,2^D$1)-MOD(MOD($B17,2^D$1),2^(D$1-1)))/2^(D$1-1)</f>
+        <f>(MOD($B17,2^D$2)-MOD(MOD($B17,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
         <v>0</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="2"/>
+        <f>(MOD($B17,2^E$2)-MOD(MOD($B17,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
         <v>0</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="2"/>
+        <f>(MOD($B17,2^F$2)-MOD(MOD($B17,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
         <v>0</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="2"/>
+        <f>(MOD($B17,2^G$2)-MOD(MOD($B17,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="2"/>
+        <f>(MOD($B17,2^H$2)-MOD(MOD($B17,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="2"/>
+        <f>(MOD($B17,2^I$2)-MOD(MOD($B17,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="2"/>
+        <f>(MOD($B17,2^J$2)-MOD(MOD($B17,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="2"/>
+        <f>(MOD($B17,2^K$2)-MOD(MOD($B17,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1231,38 +1278,38 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="2"/>
+        <f>(MOD($B18,2^D$2)-MOD(MOD($B18,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
         <v>0</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="2"/>
+        <f>(MOD($B18,2^E$2)-MOD(MOD($B18,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
         <v>0</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="2"/>
+        <f>(MOD($B18,2^F$2)-MOD(MOD($B18,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
         <v>0</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="2"/>
+        <f>(MOD($B18,2^G$2)-MOD(MOD($B18,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="2"/>
+        <f>(MOD($B18,2^H$2)-MOD(MOD($B18,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="2"/>
+        <f>(MOD($B18,2^I$2)-MOD(MOD($B18,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="2"/>
+        <f>(MOD($B18,2^J$2)-MOD(MOD($B18,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
         <v>1</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="2"/>
+        <f>(MOD($B18,2^K$2)-MOD(MOD($B18,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1274,38 +1321,38 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" si="2"/>
+        <f>(MOD($B19,2^D$2)-MOD(MOD($B19,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
         <v>0</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="2"/>
+        <f>(MOD($B19,2^E$2)-MOD(MOD($B19,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
         <v>0</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="2"/>
+        <f>(MOD($B19,2^F$2)-MOD(MOD($B19,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
         <v>0</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="2"/>
+        <f>(MOD($B19,2^G$2)-MOD(MOD($B19,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
         <v>0</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="2"/>
+        <f>(MOD($B19,2^H$2)-MOD(MOD($B19,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="2"/>
+        <f>(MOD($B19,2^I$2)-MOD(MOD($B19,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
         <v>0</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="2"/>
+        <f>(MOD($B19,2^J$2)-MOD(MOD($B19,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
         <v>1</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="2"/>
+        <f>(MOD($B19,2^K$2)-MOD(MOD($B19,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1317,38 +1364,38 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="2"/>
+        <f>(MOD($B20,2^D$2)-MOD(MOD($B20,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
         <v>0</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="2"/>
+        <f>(MOD($B20,2^E$2)-MOD(MOD($B20,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
         <v>0</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="2"/>
+        <f>(MOD($B20,2^F$2)-MOD(MOD($B20,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
         <v>0</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="2"/>
+        <f>(MOD($B20,2^G$2)-MOD(MOD($B20,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="2"/>
+        <f>(MOD($B20,2^H$2)-MOD(MOD($B20,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="2"/>
+        <f>(MOD($B20,2^I$2)-MOD(MOD($B20,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
         <v>1</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="2"/>
+        <f>(MOD($B20,2^J$2)-MOD(MOD($B20,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="2"/>
+        <f>(MOD($B20,2^K$2)-MOD(MOD($B20,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1360,38 +1407,38 @@
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="2"/>
+        <f>(MOD($B21,2^D$2)-MOD(MOD($B21,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
         <v>0</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="2"/>
+        <f>(MOD($B21,2^E$2)-MOD(MOD($B21,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="2"/>
+        <f>(MOD($B21,2^F$2)-MOD(MOD($B21,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
         <v>0</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="2"/>
+        <f>(MOD($B21,2^G$2)-MOD(MOD($B21,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="2"/>
+        <f>(MOD($B21,2^H$2)-MOD(MOD($B21,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="2"/>
+        <f>(MOD($B21,2^I$2)-MOD(MOD($B21,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
         <v>1</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="2"/>
+        <f>(MOD($B21,2^J$2)-MOD(MOD($B21,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="2"/>
+        <f>(MOD($B21,2^K$2)-MOD(MOD($B21,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1403,38 +1450,38 @@
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" ref="D22:K31" si="3">(MOD($B22,2^D$1)-MOD(MOD($B22,2^D$1),2^(D$1-1)))/2^(D$1-1)</f>
+        <f>(MOD($B22,2^D$2)-MOD(MOD($B22,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
         <v>0</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B22,2^E$2)-MOD(MOD($B22,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
         <v>0</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B22,2^F$2)-MOD(MOD($B22,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
         <v>0</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B22,2^G$2)-MOD(MOD($B22,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B22,2^H$2)-MOD(MOD($B22,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B22,2^I$2)-MOD(MOD($B22,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
         <v>1</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B22,2^J$2)-MOD(MOD($B22,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
         <v>1</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B22,2^K$2)-MOD(MOD($B22,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1446,38 +1493,38 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B23,2^D$2)-MOD(MOD($B23,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
         <v>0</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B23,2^E$2)-MOD(MOD($B23,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
         <v>0</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B23,2^F$2)-MOD(MOD($B23,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
         <v>0</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B23,2^G$2)-MOD(MOD($B23,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B23,2^H$2)-MOD(MOD($B23,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B23,2^I$2)-MOD(MOD($B23,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
         <v>1</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B23,2^J$2)-MOD(MOD($B23,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
         <v>1</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B23,2^K$2)-MOD(MOD($B23,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1489,38 +1536,38 @@
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B24,2^D$2)-MOD(MOD($B24,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
         <v>0</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B24,2^E$2)-MOD(MOD($B24,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
         <v>0</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B24,2^F$2)-MOD(MOD($B24,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
         <v>0</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B24,2^G$2)-MOD(MOD($B24,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B24,2^H$2)-MOD(MOD($B24,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
         <v>1</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B24,2^I$2)-MOD(MOD($B24,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B24,2^J$2)-MOD(MOD($B24,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B24,2^K$2)-MOD(MOD($B24,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1532,296 +1579,296 @@
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B25,2^D$2)-MOD(MOD($B25,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
         <v>0</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B25,2^E$2)-MOD(MOD($B25,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
         <v>0</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B25,2^F$2)-MOD(MOD($B25,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
         <v>0</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B25,2^G$2)-MOD(MOD($B25,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
         <v>0</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B25,2^H$2)-MOD(MOD($B25,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
         <v>1</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B25,2^I$2)-MOD(MOD($B25,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
         <v>0</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B25,2^J$2)-MOD(MOD($B25,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
         <v>0</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B25,2^K$2)-MOD(MOD($B25,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1">
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B26,2^D$2)-MOD(MOD($B26,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
         <v>0</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B26,2^E$2)-MOD(MOD($B26,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
         <v>0</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B26,2^F$2)-MOD(MOD($B26,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
         <v>0</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B26,2^G$2)-MOD(MOD($B26,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B26,2^H$2)-MOD(MOD($B26,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
         <v>1</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B26,2^I$2)-MOD(MOD($B26,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B26,2^J$2)-MOD(MOD($B26,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
         <v>1</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B26,2^K$2)-MOD(MOD($B26,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" s="1">
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B27,2^D$2)-MOD(MOD($B27,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
         <v>0</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B27,2^E$2)-MOD(MOD($B27,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
         <v>0</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B27,2^F$2)-MOD(MOD($B27,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
         <v>0</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B27,2^G$2)-MOD(MOD($B27,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B27,2^H$2)-MOD(MOD($B27,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
         <v>1</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B27,2^I$2)-MOD(MOD($B27,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B27,2^J$2)-MOD(MOD($B27,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
         <v>1</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B27,2^K$2)-MOD(MOD($B27,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B28" s="1">
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B28,2^D$2)-MOD(MOD($B28,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
         <v>0</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B28,2^E$2)-MOD(MOD($B28,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
         <v>0</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B28,2^F$2)-MOD(MOD($B28,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
         <v>0</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B28,2^G$2)-MOD(MOD($B28,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
         <v>0</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B28,2^H$2)-MOD(MOD($B28,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
         <v>1</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B28,2^I$2)-MOD(MOD($B28,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
         <v>1</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B28,2^J$2)-MOD(MOD($B28,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
         <v>0</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B28,2^K$2)-MOD(MOD($B28,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B29" s="1">
         <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B29,2^D$2)-MOD(MOD($B29,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
         <v>0</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B29,2^E$2)-MOD(MOD($B29,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
         <v>0</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B29,2^F$2)-MOD(MOD($B29,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
         <v>0</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B29,2^G$2)-MOD(MOD($B29,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B29,2^H$2)-MOD(MOD($B29,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
         <v>1</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B29,2^I$2)-MOD(MOD($B29,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
         <v>1</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B29,2^J$2)-MOD(MOD($B29,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B29,2^K$2)-MOD(MOD($B29,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1">
         <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B30,2^D$2)-MOD(MOD($B30,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
         <v>0</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B30,2^E$2)-MOD(MOD($B30,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
         <v>0</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B30,2^F$2)-MOD(MOD($B30,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
         <v>0</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B30,2^G$2)-MOD(MOD($B30,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
         <v>0</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B30,2^H$2)-MOD(MOD($B30,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
         <v>1</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B30,2^I$2)-MOD(MOD($B30,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
         <v>1</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B30,2^J$2)-MOD(MOD($B30,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
         <v>1</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B30,2^K$2)-MOD(MOD($B30,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1">
         <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B31,2^D$2)-MOD(MOD($B31,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
         <v>0</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B31,2^E$2)-MOD(MOD($B31,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
         <v>0</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B31,2^F$2)-MOD(MOD($B31,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
         <v>0</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="3"/>
+        <f>(MOD($B31,2^G$2)-MOD(MOD($B31,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
         <v>0</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B31,2^H$2)-MOD(MOD($B31,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
         <v>1</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B31,2^I$2)-MOD(MOD($B31,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
         <v>1</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B31,2^J$2)-MOD(MOD($B31,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
         <v>1</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="3"/>
+        <f>(MOD($B31,2^K$2)-MOD(MOD($B31,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1836,7 +1883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
@@ -1848,7 +1895,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="5">
@@ -1886,44 +1933,44 @@
         <v>85</v>
       </c>
       <c r="C2" s="14">
-        <f>(MOD($B2,2^C$34)-MOD(MOD($B2,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <f t="shared" ref="C2:J2" si="0">(MOD($B2,2^C$34)-MOD(MOD($B2,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
         <v>0</v>
       </c>
       <c r="D2" s="14">
-        <f>(MOD($B2,2^D$34)-MOD(MOD($B2,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E2" s="14">
-        <f>(MOD($B2,2^E$34)-MOD(MOD($B2,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F2" s="14">
-        <f>(MOD($B2,2^F$34)-MOD(MOD($B2,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G2" s="14">
-        <f>(MOD($B2,2^G$34)-MOD(MOD($B2,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H2" s="14">
-        <f>(MOD($B2,2^H$34)-MOD(MOD($B2,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I2" s="14">
-        <f>(MOD($B2,2^I$34)-MOD(MOD($B2,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J2" s="14">
-        <f>(MOD($B2,2^J$34)-MOD(MOD($B2,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="5">
@@ -1960,39 +2007,39 @@
         <v>1</v>
       </c>
       <c r="C6" s="14">
-        <f>(MOD($B6,2^C$34)-MOD(MOD($B6,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <f t="shared" ref="C6:J6" si="1">(MOD($B6,2^C$34)-MOD(MOD($B6,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
         <v>0</v>
       </c>
       <c r="D6" s="14">
-        <f>(MOD($B6,2^D$34)-MOD(MOD($B6,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E6" s="14">
-        <f>(MOD($B6,2^E$34)-MOD(MOD($B6,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F6" s="14">
-        <f>(MOD($B6,2^F$34)-MOD(MOD($B6,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G6" s="14">
-        <f>(MOD($B6,2^G$34)-MOD(MOD($B6,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" s="14">
-        <f>(MOD($B6,2^H$34)-MOD(MOD($B6,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="14">
-        <f>(MOD($B6,2^I$34)-MOD(MOD($B6,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J6" s="14">
-        <f>(MOD($B6,2^J$34)-MOD(MOD($B6,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N6">
         <f>255/15</f>
@@ -2007,7 +2054,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="5">
@@ -2044,39 +2091,39 @@
         <v>1</v>
       </c>
       <c r="C10" s="14">
-        <f>(MOD($B10,2^C$34)-MOD(MOD($B10,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <f t="shared" ref="C10:J10" si="2">(MOD($B10,2^C$34)-MOD(MOD($B10,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
         <v>0</v>
       </c>
       <c r="D10" s="14">
-        <f>(MOD($B10,2^D$34)-MOD(MOD($B10,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E10" s="14">
-        <f>(MOD($B10,2^E$34)-MOD(MOD($B10,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F10" s="14">
-        <f>(MOD($B10,2^F$34)-MOD(MOD($B10,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G10" s="14">
-        <f>(MOD($B10,2^G$34)-MOD(MOD($B10,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H10" s="14">
-        <f>(MOD($B10,2^H$34)-MOD(MOD($B10,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="14">
-        <f>(MOD($B10,2^I$34)-MOD(MOD($B10,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J10" s="14">
-        <f>(MOD($B10,2^J$34)-MOD(MOD($B10,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R10">
         <f>255/40</f>
@@ -2091,7 +2138,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="5">
@@ -2132,39 +2179,39 @@
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <f>(MOD($B14,2^C$34)-MOD(MOD($B14,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <f t="shared" ref="C14:J14" si="3">(MOD($B14,2^C$34)-MOD(MOD($B14,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
         <v>0</v>
       </c>
       <c r="D14" s="11">
-        <f>(MOD($B14,2^D$34)-MOD(MOD($B14,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E14" s="11">
-        <f>(MOD($B14,2^E$34)-MOD(MOD($B14,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F14" s="11">
-        <f>(MOD($B14,2^F$34)-MOD(MOD($B14,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <f>(MOD($B14,2^G$34)-MOD(MOD($B14,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H14" s="12">
-        <f>(MOD($B14,2^H$34)-MOD(MOD($B14,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I14" s="12">
-        <f>(MOD($B14,2^I$34)-MOD(MOD($B14,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J14" s="11">
-        <f>(MOD($B14,2^J$34)-MOD(MOD($B14,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -2175,13 +2222,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O17">
         <f>256-6*40</f>
@@ -2190,7 +2237,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="5">
@@ -2227,39 +2274,39 @@
         <v>115</v>
       </c>
       <c r="C19" s="14">
-        <f>(MOD($B19,2^C$34)-MOD(MOD($B19,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <f t="shared" ref="C19:J21" si="4">(MOD($B19,2^C$34)-MOD(MOD($B19,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
         <v>0</v>
       </c>
       <c r="D19" s="15">
-        <f>(MOD($B19,2^D$34)-MOD(MOD($B19,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E19" s="15">
-        <f>(MOD($B19,2^E$34)-MOD(MOD($B19,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F19" s="15">
-        <f>(MOD($B19,2^F$34)-MOD(MOD($B19,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G19" s="14">
-        <f>(MOD($B19,2^G$34)-MOD(MOD($B19,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H19" s="14">
-        <f>(MOD($B19,2^H$34)-MOD(MOD($B19,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I19" s="13">
-        <f>(MOD($B19,2^I$34)-MOD(MOD($B19,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J19" s="13">
-        <f>(MOD($B19,2^J$34)-MOD(MOD($B19,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O19">
         <f>50*17*2</f>
@@ -2275,39 +2322,39 @@
         <v>99</v>
       </c>
       <c r="C20" s="14">
-        <f>(MOD($B20,2^C$34)-MOD(MOD($B20,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D20" s="15">
-        <f>(MOD($B20,2^D$34)-MOD(MOD($B20,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E20" s="15">
-        <f>(MOD($B20,2^E$34)-MOD(MOD($B20,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F20" s="15">
-        <f>(MOD($B20,2^F$34)-MOD(MOD($B20,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G20" s="14">
-        <f>(MOD($B20,2^G$34)-MOD(MOD($B20,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H20" s="14">
-        <f>(MOD($B20,2^H$34)-MOD(MOD($B20,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I20" s="13">
-        <f>(MOD($B20,2^I$34)-MOD(MOD($B20,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J20" s="13">
-        <f>(MOD($B20,2^J$34)-MOD(MOD($B20,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O20">
         <f>30*(7*2+2)</f>
@@ -2323,39 +2370,39 @@
         <v>3</v>
       </c>
       <c r="C21" s="14">
-        <f>(MOD($B21,2^C$34)-MOD(MOD($B21,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D21" s="15">
-        <f>(MOD($B21,2^D$34)-MOD(MOD($B21,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E21" s="15">
-        <f>(MOD($B21,2^E$34)-MOD(MOD($B21,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F21" s="15">
-        <f>(MOD($B21,2^F$34)-MOD(MOD($B21,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G21" s="14">
-        <f>(MOD($B21,2^G$34)-MOD(MOD($B21,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H21" s="14">
-        <f>(MOD($B21,2^H$34)-MOD(MOD($B21,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I21" s="13">
-        <f>(MOD($B21,2^I$34)-MOD(MOD($B21,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J21" s="13">
-        <f>(MOD($B21,2^J$34)-MOD(MOD($B21,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O21">
         <f>20*(7*2+2)</f>
@@ -2382,7 +2429,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="5">
@@ -2423,66 +2470,66 @@
         <v>7</v>
       </c>
       <c r="C25" s="14">
-        <f>(MOD($B25,2^C$34)-MOD(MOD($B25,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <f t="shared" ref="C25:J25" si="5">(MOD($B25,2^C$34)-MOD(MOD($B25,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
         <v>0</v>
       </c>
       <c r="D25" s="14">
-        <f>(MOD($B25,2^D$34)-MOD(MOD($B25,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E25" s="14">
-        <f>(MOD($B25,2^E$34)-MOD(MOD($B25,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F25" s="14">
-        <f>(MOD($B25,2^F$34)-MOD(MOD($B25,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G25" s="14">
-        <f>(MOD($B25,2^G$34)-MOD(MOD($B25,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H25" s="13">
-        <f>(MOD($B25,2^H$34)-MOD(MOD($B25,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I25" s="13">
-        <f>(MOD($B25,2^I$34)-MOD(MOD($B25,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J25" s="13">
-        <f>(MOD($B25,2^J$34)-MOD(MOD($B25,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H26" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="5">
@@ -2510,56 +2557,56 @@
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1">
         <f>HEX2DEC(A30)</f>
         <v>255</v>
       </c>
       <c r="C30" s="14">
-        <f>(MOD($B30,2^C$34)-MOD(MOD($B30,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <f t="shared" ref="C30:J30" si="6">(MOD($B30,2^C$34)-MOD(MOD($B30,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
         <v>1</v>
       </c>
       <c r="D30" s="14">
-        <f>(MOD($B30,2^D$34)-MOD(MOD($B30,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E30" s="14">
-        <f>(MOD($B30,2^E$34)-MOD(MOD($B30,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F30" s="14">
-        <f>(MOD($B30,2^F$34)-MOD(MOD($B30,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G30" s="14">
-        <f>(MOD($B30,2^G$34)-MOD(MOD($B30,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H30" s="14">
-        <f>(MOD($B30,2^H$34)-MOD(MOD($B30,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I30" s="14">
-        <f>(MOD($B30,2^I$34)-MOD(MOD($B30,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J30" s="14">
-        <f>(MOD($B30,2^J$34)-MOD(MOD($B30,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2568,7 +2615,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="5">
@@ -2596,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2611,35 +2658,35 @@
         <v>52</v>
       </c>
       <c r="C35" s="3">
-        <f>(MOD($B35,2^C$34)-MOD(MOD($B35,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <f t="shared" ref="C35:J39" si="7">(MOD($B35,2^C$34)-MOD(MOD($B35,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
         <v>0</v>
       </c>
       <c r="D35" s="11">
-        <f>(MOD($B35,2^D$34)-MOD(MOD($B35,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E35" s="11">
-        <f>(MOD($B35,2^E$34)-MOD(MOD($B35,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F35" s="11">
-        <f>(MOD($B35,2^F$34)-MOD(MOD($B35,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G35" s="4">
-        <f>(MOD($B35,2^G$34)-MOD(MOD($B35,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H35" s="12">
-        <f>(MOD($B35,2^H$34)-MOD(MOD($B35,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I35" s="12">
-        <f>(MOD($B35,2^I$34)-MOD(MOD($B35,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J35" s="11">
-        <f>(MOD($B35,2^J$34)-MOD(MOD($B35,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K35" s="1">
@@ -2662,35 +2709,35 @@
         <v>35</v>
       </c>
       <c r="C36" s="3">
-        <f>(MOD($B36,2^C$34)-MOD(MOD($B36,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D36" s="11">
-        <f>(MOD($B36,2^D$34)-MOD(MOD($B36,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E36" s="11">
-        <f>(MOD($B36,2^E$34)-MOD(MOD($B36,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F36" s="11">
-        <f>(MOD($B36,2^F$34)-MOD(MOD($B36,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G36" s="4">
-        <f>(MOD($B36,2^G$34)-MOD(MOD($B36,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H36" s="12">
-        <f>(MOD($B36,2^H$34)-MOD(MOD($B36,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I36" s="12">
-        <f>(MOD($B36,2^I$34)-MOD(MOD($B36,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J36" s="11">
-        <f>(MOD($B36,2^J$34)-MOD(MOD($B36,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K36" s="1">
@@ -2713,35 +2760,35 @@
         <v>34</v>
       </c>
       <c r="C37" s="3">
-        <f>(MOD($B37,2^C$34)-MOD(MOD($B37,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D37" s="11">
-        <f>(MOD($B37,2^D$34)-MOD(MOD($B37,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E37" s="11">
-        <f>(MOD($B37,2^E$34)-MOD(MOD($B37,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F37" s="11">
-        <f>(MOD($B37,2^F$34)-MOD(MOD($B37,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G37" s="4">
-        <f>(MOD($B37,2^G$34)-MOD(MOD($B37,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H37" s="12">
-        <f>(MOD($B37,2^H$34)-MOD(MOD($B37,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I37" s="12">
-        <f>(MOD($B37,2^I$34)-MOD(MOD($B37,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J37" s="11">
-        <f>(MOD($B37,2^J$34)-MOD(MOD($B37,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K37" s="1">
@@ -2751,7 +2798,7 @@
         <v>0.52</v>
       </c>
       <c r="M37">
-        <f t="shared" ref="M37:M39" si="0">(K37+L37)*2</f>
+        <f t="shared" ref="M37:M39" si="8">(K37+L37)*2</f>
         <v>2.08</v>
       </c>
     </row>
@@ -2764,35 +2811,35 @@
         <v>68</v>
       </c>
       <c r="C38" s="3">
-        <f>(MOD($B38,2^C$34)-MOD(MOD($B38,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D38" s="11">
-        <f>(MOD($B38,2^D$34)-MOD(MOD($B38,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E38" s="11">
-        <f>(MOD($B38,2^E$34)-MOD(MOD($B38,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F38" s="11">
-        <f>(MOD($B38,2^F$34)-MOD(MOD($B38,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G38" s="4">
-        <f>(MOD($B38,2^G$34)-MOD(MOD($B38,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H38" s="12">
-        <f>(MOD($B38,2^H$34)-MOD(MOD($B38,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I38" s="12">
-        <f>(MOD($B38,2^I$34)-MOD(MOD($B38,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J38" s="11">
-        <f>(MOD($B38,2^J$34)-MOD(MOD($B38,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K38" s="1">
@@ -2802,7 +2849,7 @@
         <v>2.04</v>
       </c>
       <c r="M38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>8.16</v>
       </c>
     </row>
@@ -2815,35 +2862,35 @@
         <v>18</v>
       </c>
       <c r="C39" s="3">
-        <f>(MOD($B39,2^C$34)-MOD(MOD($B39,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D39" s="11">
-        <f>(MOD($B39,2^D$34)-MOD(MOD($B39,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E39" s="11">
-        <f>(MOD($B39,2^E$34)-MOD(MOD($B39,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F39" s="11">
-        <f>(MOD($B39,2^F$34)-MOD(MOD($B39,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G39" s="4">
-        <f>(MOD($B39,2^G$34)-MOD(MOD($B39,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H39" s="12">
-        <f>(MOD($B39,2^H$34)-MOD(MOD($B39,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I39" s="12">
-        <f>(MOD($B39,2^I$34)-MOD(MOD($B39,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J39" s="11">
-        <f>(MOD($B39,2^J$34)-MOD(MOD($B39,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K39" s="1">
@@ -2853,7 +2900,7 @@
         <v>0.52</v>
       </c>
       <c r="M39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>1.56</v>
       </c>
     </row>
@@ -2876,7 +2923,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2890,7 +2937,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="5">
@@ -2918,10 +2965,10 @@
         <v>1</v>
       </c>
       <c r="K43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2933,39 +2980,39 @@
         <v>52</v>
       </c>
       <c r="C44" s="3">
-        <f>(MOD($B44,2^C$34)-MOD(MOD($B44,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <f t="shared" ref="C44:J46" si="9">(MOD($B44,2^C$34)-MOD(MOD($B44,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
         <v>0</v>
       </c>
       <c r="D44" s="11">
-        <f>(MOD($B44,2^D$34)-MOD(MOD($B44,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E44" s="11">
-        <f>(MOD($B44,2^E$34)-MOD(MOD($B44,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F44" s="11">
-        <f>(MOD($B44,2^F$34)-MOD(MOD($B44,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G44" s="4">
-        <f>(MOD($B44,2^G$34)-MOD(MOD($B44,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H44" s="12">
-        <f>(MOD($B44,2^H$34)-MOD(MOD($B44,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I44" s="12">
-        <f>(MOD($B44,2^I$34)-MOD(MOD($B44,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J44" s="11">
-        <f>(MOD($B44,2^J$34)-MOD(MOD($B44,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L44" s="1">
         <v>2.04</v>
@@ -2980,35 +3027,35 @@
         <v>17</v>
       </c>
       <c r="C45" s="3">
-        <f>(MOD($B45,2^C$34)-MOD(MOD($B45,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D45" s="11">
-        <f>(MOD($B45,2^D$34)-MOD(MOD($B45,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E45" s="11">
-        <f>(MOD($B45,2^E$34)-MOD(MOD($B45,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F45" s="11">
-        <f>(MOD($B45,2^F$34)-MOD(MOD($B45,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G45" s="4">
-        <f>(MOD($B45,2^G$34)-MOD(MOD($B45,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H45" s="12">
-        <f>(MOD($B45,2^H$34)-MOD(MOD($B45,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I45" s="12">
-        <f>(MOD($B45,2^I$34)-MOD(MOD($B45,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J45" s="11">
-        <f>(MOD($B45,2^J$34)-MOD(MOD($B45,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K45" s="1">
@@ -3027,35 +3074,35 @@
         <v>33</v>
       </c>
       <c r="C46" s="3">
-        <f>(MOD($B46,2^C$34)-MOD(MOD($B46,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D46" s="11">
-        <f>(MOD($B46,2^D$34)-MOD(MOD($B46,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E46" s="11">
-        <f>(MOD($B46,2^E$34)-MOD(MOD($B46,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F46" s="11">
-        <f>(MOD($B46,2^F$34)-MOD(MOD($B46,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G46" s="4">
-        <f>(MOD($B46,2^G$34)-MOD(MOD($B46,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H46" s="12">
-        <f>(MOD($B46,2^H$34)-MOD(MOD($B46,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I46" s="12">
-        <f>(MOD($B46,2^I$34)-MOD(MOD($B46,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J46" s="11">
-        <f>(MOD($B46,2^J$34)-MOD(MOD($B46,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K46" s="1">
@@ -3075,14 +3122,14 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="5">
@@ -3110,10 +3157,10 @@
         <v>1</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3125,42 +3172,42 @@
         <v>0</v>
       </c>
       <c r="C51" s="13">
-        <f>(MOD($B51,2^C$34)-MOD(MOD($B51,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <f t="shared" ref="C51:J51" si="10">(MOD($B51,2^C$34)-MOD(MOD($B51,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
         <v>0</v>
       </c>
       <c r="D51" s="13">
-        <f>(MOD($B51,2^D$34)-MOD(MOD($B51,2^D$34),2^(D$34-1)))/2^(D$34-1)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E51" s="13">
-        <f>(MOD($B51,2^E$34)-MOD(MOD($B51,2^E$34),2^(E$34-1)))/2^(E$34-1)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F51" s="13">
-        <f>(MOD($B51,2^F$34)-MOD(MOD($B51,2^F$34),2^(F$34-1)))/2^(F$34-1)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G51" s="14">
-        <f>(MOD($B51,2^G$34)-MOD(MOD($B51,2^G$34),2^(G$34-1)))/2^(G$34-1)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H51" s="14">
-        <f>(MOD($B51,2^H$34)-MOD(MOD($B51,2^H$34),2^(H$34-1)))/2^(H$34-1)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I51" s="14">
-        <f>(MOD($B51,2^I$34)-MOD(MOD($B51,2^I$34),2^(I$34-1)))/2^(I$34-1)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J51" s="14">
-        <f>(MOD($B51,2^J$34)-MOD(MOD($B51,2^J$34),2^(J$34-1)))/2^(J$34-1)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3168,46 +3215,46 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <f t="shared" ref="B52:B54" si="1">HEX2DEC(A52)</f>
+        <f t="shared" ref="B52:B54" si="11">HEX2DEC(A52)</f>
         <v>80</v>
       </c>
       <c r="C52" s="13">
-        <f t="shared" ref="C52:J54" si="2">(MOD($B52,2^C$34)-MOD(MOD($B52,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
+        <f t="shared" ref="C52:J54" si="12">(MOD($B52,2^C$34)-MOD(MOD($B52,2^C$34),2^(C$34-1)))/2^(C$34-1)</f>
         <v>0</v>
       </c>
       <c r="D52" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E52" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F52" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G52" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H52" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I52" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J52" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3215,46 +3262,46 @@
         <v>60</v>
       </c>
       <c r="B53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
       <c r="C53" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D53" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E53" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F53" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G53" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H53" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I53" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J53" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -3262,46 +3309,46 @@
         <v>21</v>
       </c>
       <c r="B54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="C54" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D54" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E54" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F54" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G54" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H54" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I54" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J54" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3316,7 +3363,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">

--- a/tool/3_公式/number.xlsx
+++ b/tool/3_公式/number.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="238" yWindow="106" windowWidth="14810" windowHeight="8019"/>
   </bookViews>
   <sheets>
     <sheet name="lcd4bit" sheetId="12" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>_</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,218 +57,234 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>LED37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.04s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复位</t>
+  </si>
+  <si>
+    <t>LED01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子模块使能</t>
+  </si>
+  <si>
+    <t>LED02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无 中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡出,淡入,闪烁,15mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.08s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.16s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.26s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡出,淡入,不闪烁,15mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺省值地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不淡出,不淡入,不闪烁,15mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resv</t>
+  </si>
+  <si>
+    <t>mh</t>
+  </si>
+  <si>
+    <t>ml</t>
   </si>
   <si>
     <t>_V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.04s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>on</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0~16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0~255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复位</t>
-  </si>
-  <si>
-    <t>LED01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子模块使能</t>
-  </si>
-  <si>
-    <t>LED02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无 中断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淡出,淡入,闪烁,15mA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.08s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.16s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.26s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淡出,淡入,不闪烁,15mA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺省值地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不淡出,不淡入,不闪烁,15mA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rgb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resv</t>
-  </si>
-  <si>
-    <t>mh</t>
-  </si>
-  <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>_V</t>
+    <t>Hx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NV3023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平翻转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST7735S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -279,7 +295,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;0x&quot;\ General"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +342,14 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -394,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -424,6 +448,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -731,51 +758,51 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.88671875" style="1"/>
     <col min="4" max="7" width="4.88671875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
-        <v>10</v>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D1" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>61</v>
-      </c>
       <c r="K1" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C2" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="5">
         <v>8</v>
@@ -804,7 +831,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P2" s="2">
         <v>4</v>
@@ -819,9 +846,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1">
         <f>HEX2DEC(A3)</f>
@@ -831,35 +858,35 @@
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <f>(MOD($B3,2^D$2)-MOD(MOD($B3,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" ref="D3:K9" si="0">(MOD($B3,2^D$2)-MOD(MOD($B3,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
         <v>1</v>
       </c>
       <c r="E3" s="6">
-        <f>(MOD($B3,2^E$2)-MOD(MOD($B3,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f>(MOD($B3,2^F$2)-MOD(MOD($B3,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3" s="6">
-        <f>(MOD($B3,2^G$2)-MOD(MOD($B3,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H3" s="4">
-        <f>(MOD($B3,2^H$2)-MOD(MOD($B3,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="4">
-        <f>(MOD($B3,2^I$2)-MOD(MOD($B3,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3" s="4">
-        <f>(MOD($B3,2^J$2)-MOD(MOD($B3,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K3" s="3">
-        <f>(MOD($B3,2^K$2)-MOD(MOD($B3,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M3" s="1">
@@ -873,25 +900,25 @@
         <v>0</v>
       </c>
       <c r="P3" s="4">
-        <f>(MOD($N3,2^H$2)-MOD(MOD($N3,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" ref="P3:S6" si="1">(MOD($N3,2^H$2)-MOD(MOD($N3,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
         <v>0</v>
       </c>
       <c r="Q3" s="4">
-        <f>(MOD($N3,2^I$2)-MOD(MOD($N3,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R3" s="4">
-        <f>(MOD($N3,2^J$2)-MOD(MOD($N3,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S3" s="3">
-        <f>(MOD($N3,2^K$2)-MOD(MOD($N3,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -900,35 +927,35 @@
         <v>8</v>
       </c>
       <c r="D4" s="6">
-        <f>(MOD($B4,2^D$2)-MOD(MOD($B4,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <f>(MOD($B4,2^E$2)-MOD(MOD($B4,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="6">
-        <f>(MOD($B4,2^F$2)-MOD(MOD($B4,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="6">
-        <f>(MOD($B4,2^G$2)-MOD(MOD($B4,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="3">
-        <f>(MOD($B4,2^H$2)-MOD(MOD($B4,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f>(MOD($B4,2^I$2)-MOD(MOD($B4,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <f>(MOD($B4,2^J$2)-MOD(MOD($B4,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <f>(MOD($B4,2^K$2)-MOD(MOD($B4,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="1">
@@ -939,28 +966,28 @@
         <v>8</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P4" s="3">
-        <f>(MOD($N4,2^H$2)-MOD(MOD($N4,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q4" s="4">
-        <f>(MOD($N4,2^I$2)-MOD(MOD($N4,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R4" s="3">
-        <f>(MOD($N4,2^J$2)-MOD(MOD($N4,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S4" s="3">
-        <f>(MOD($N4,2^K$2)-MOD(MOD($N4,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1">
         <f>HEX2DEC(A5)</f>
@@ -970,35 +997,35 @@
         <v>0</v>
       </c>
       <c r="D5" s="6">
-        <f>(MOD($B5,2^D$2)-MOD(MOD($B5,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E5" s="6">
-        <f>(MOD($B5,2^E$2)-MOD(MOD($B5,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <f>(MOD($B5,2^F$2)-MOD(MOD($B5,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="6">
-        <f>(MOD($B5,2^G$2)-MOD(MOD($B5,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <f>(MOD($B5,2^H$2)-MOD(MOD($B5,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="3">
-        <f>(MOD($B5,2^I$2)-MOD(MOD($B5,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <f>(MOD($B5,2^J$2)-MOD(MOD($B5,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="3">
-        <f>(MOD($B5,2^K$2)-MOD(MOD($B5,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="1">
@@ -1009,26 +1036,26 @@
         <v>4</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P5" s="3">
-        <f>(MOD($N5,2^H$2)-MOD(MOD($N5,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q5" s="3">
-        <f>(MOD($N5,2^I$2)-MOD(MOD($N5,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R5" s="3">
-        <f>(MOD($N5,2^J$2)-MOD(MOD($N5,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S5" s="3">
-        <f>(MOD($N5,2^K$2)-MOD(MOD($N5,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>40</v>
       </c>
@@ -1037,42 +1064,42 @@
         <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="6">
-        <f>(MOD($B6,2^D$2)-MOD(MOD($B6,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="6">
-        <f>(MOD($B6,2^E$2)-MOD(MOD($B6,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F6" s="6">
-        <f>(MOD($B6,2^F$2)-MOD(MOD($B6,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <f>(MOD($B6,2^G$2)-MOD(MOD($B6,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <f>(MOD($B6,2^H$2)-MOD(MOD($B6,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="3">
-        <f>(MOD($B6,2^I$2)-MOD(MOD($B6,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <f>(MOD($B6,2^J$2)-MOD(MOD($B6,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <f>(MOD($B6,2^K$2)-MOD(MOD($B6,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N6" s="1">
         <f>HEX2DEC(M6)</f>
@@ -1082,23 +1109,23 @@
         <v>8</v>
       </c>
       <c r="P6" s="4">
-        <f>(MOD($N6,2^H$2)-MOD(MOD($N6,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q6" s="3">
-        <f>(MOD($N6,2^I$2)-MOD(MOD($N6,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R6" s="3">
-        <f>(MOD($N6,2^J$2)-MOD(MOD($N6,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S6" s="3">
-        <f>(MOD($N6,2^K$2)-MOD(MOD($N6,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>60</v>
       </c>
@@ -1107,39 +1134,39 @@
         <v>96</v>
       </c>
       <c r="D7" s="6">
-        <f>(MOD($B7,2^D$2)-MOD(MOD($B7,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="6">
-        <f>(MOD($B7,2^E$2)-MOD(MOD($B7,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F7" s="6">
-        <f>(MOD($B7,2^F$2)-MOD(MOD($B7,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7" s="6">
-        <f>(MOD($B7,2^G$2)-MOD(MOD($B7,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <f>(MOD($B7,2^H$2)-MOD(MOD($B7,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <f>(MOD($B7,2^I$2)-MOD(MOD($B7,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <f>(MOD($B7,2^J$2)-MOD(MOD($B7,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <f>(MOD($B7,2^K$2)-MOD(MOD($B7,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>48</v>
       </c>
@@ -1148,42 +1175,42 @@
         <v>72</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7">
-        <f>(MOD($B8,2^D$2)-MOD(MOD($B8,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="7">
-        <f>(MOD($B8,2^E$2)-MOD(MOD($B8,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F8" s="7">
-        <f>(MOD($B8,2^F$2)-MOD(MOD($B8,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="7">
-        <f>(MOD($B8,2^G$2)-MOD(MOD($B8,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <f>(MOD($B8,2^H$2)-MOD(MOD($B8,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I8" s="3">
-        <f>(MOD($B8,2^I$2)-MOD(MOD($B8,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <f>(MOD($B8,2^J$2)-MOD(MOD($B8,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <f>(MOD($B8,2^K$2)-MOD(MOD($B8,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>98</v>
       </c>
@@ -1192,42 +1219,55 @@
         <v>152</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7">
-        <f>(MOD($B9,2^D$2)-MOD(MOD($B9,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9" s="7">
-        <f>(MOD($B9,2^E$2)-MOD(MOD($B9,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="7">
-        <f>(MOD($B9,2^F$2)-MOD(MOD($B9,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <f>(MOD($B9,2^G$2)-MOD(MOD($B9,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H9" s="3">
-        <f>(MOD($B9,2^H$2)-MOD(MOD($B9,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I9" s="3">
-        <f>(MOD($B9,2^I$2)-MOD(MOD($B9,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <f>(MOD($B9,2^J$2)-MOD(MOD($B9,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <f>(MOD($B9,2^K$2)-MOD(MOD($B9,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1238,39 +1278,39 @@
         <v>1</v>
       </c>
       <c r="D17" s="6">
-        <f>(MOD($B17,2^D$2)-MOD(MOD($B17,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" ref="D17:K31" si="2">(MOD($B17,2^D$2)-MOD(MOD($B17,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
         <v>0</v>
       </c>
       <c r="E17" s="6">
-        <f>(MOD($B17,2^E$2)-MOD(MOD($B17,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F17" s="6">
-        <f>(MOD($B17,2^F$2)-MOD(MOD($B17,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G17" s="6">
-        <f>(MOD($B17,2^G$2)-MOD(MOD($B17,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <f>(MOD($B17,2^H$2)-MOD(MOD($B17,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <f>(MOD($B17,2^I$2)-MOD(MOD($B17,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <f>(MOD($B17,2^J$2)-MOD(MOD($B17,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <f>(MOD($B17,2^K$2)-MOD(MOD($B17,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -1281,39 +1321,39 @@
         <v>1</v>
       </c>
       <c r="D18" s="6">
-        <f>(MOD($B18,2^D$2)-MOD(MOD($B18,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E18" s="6">
-        <f>(MOD($B18,2^E$2)-MOD(MOD($B18,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F18" s="6">
-        <f>(MOD($B18,2^F$2)-MOD(MOD($B18,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="6">
-        <f>(MOD($B18,2^G$2)-MOD(MOD($B18,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <f>(MOD($B18,2^H$2)-MOD(MOD($B18,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <f>(MOD($B18,2^I$2)-MOD(MOD($B18,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <f>(MOD($B18,2^J$2)-MOD(MOD($B18,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K18" s="3">
-        <f>(MOD($B18,2^K$2)-MOD(MOD($B18,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -1324,39 +1364,39 @@
         <v>1</v>
       </c>
       <c r="D19" s="6">
-        <f>(MOD($B19,2^D$2)-MOD(MOD($B19,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E19" s="6">
-        <f>(MOD($B19,2^E$2)-MOD(MOD($B19,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F19" s="6">
-        <f>(MOD($B19,2^F$2)-MOD(MOD($B19,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G19" s="6">
-        <f>(MOD($B19,2^G$2)-MOD(MOD($B19,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H19" s="3">
-        <f>(MOD($B19,2^H$2)-MOD(MOD($B19,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <f>(MOD($B19,2^I$2)-MOD(MOD($B19,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J19" s="3">
-        <f>(MOD($B19,2^J$2)-MOD(MOD($B19,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K19" s="3">
-        <f>(MOD($B19,2^K$2)-MOD(MOD($B19,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -1367,39 +1407,39 @@
         <v>1</v>
       </c>
       <c r="D20" s="6">
-        <f>(MOD($B20,2^D$2)-MOD(MOD($B20,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E20" s="6">
-        <f>(MOD($B20,2^E$2)-MOD(MOD($B20,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F20" s="6">
-        <f>(MOD($B20,2^F$2)-MOD(MOD($B20,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G20" s="6">
-        <f>(MOD($B20,2^G$2)-MOD(MOD($B20,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <f>(MOD($B20,2^H$2)-MOD(MOD($B20,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <f>(MOD($B20,2^I$2)-MOD(MOD($B20,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J20" s="3">
-        <f>(MOD($B20,2^J$2)-MOD(MOD($B20,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <f>(MOD($B20,2^K$2)-MOD(MOD($B20,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -1410,39 +1450,39 @@
         <v>1</v>
       </c>
       <c r="D21" s="6">
-        <f>(MOD($B21,2^D$2)-MOD(MOD($B21,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E21" s="6">
-        <f>(MOD($B21,2^E$2)-MOD(MOD($B21,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <f>(MOD($B21,2^F$2)-MOD(MOD($B21,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21" s="6">
-        <f>(MOD($B21,2^G$2)-MOD(MOD($B21,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <f>(MOD($B21,2^H$2)-MOD(MOD($B21,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <f>(MOD($B21,2^I$2)-MOD(MOD($B21,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J21" s="3">
-        <f>(MOD($B21,2^J$2)-MOD(MOD($B21,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <f>(MOD($B21,2^K$2)-MOD(MOD($B21,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -1453,39 +1493,39 @@
         <v>1</v>
       </c>
       <c r="D22" s="6">
-        <f>(MOD($B22,2^D$2)-MOD(MOD($B22,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E22" s="6">
-        <f>(MOD($B22,2^E$2)-MOD(MOD($B22,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F22" s="6">
-        <f>(MOD($B22,2^F$2)-MOD(MOD($B22,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G22" s="6">
-        <f>(MOD($B22,2^G$2)-MOD(MOD($B22,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <f>(MOD($B22,2^H$2)-MOD(MOD($B22,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <f>(MOD($B22,2^I$2)-MOD(MOD($B22,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J22" s="3">
-        <f>(MOD($B22,2^J$2)-MOD(MOD($B22,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K22" s="3">
-        <f>(MOD($B22,2^K$2)-MOD(MOD($B22,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -1496,39 +1536,39 @@
         <v>1</v>
       </c>
       <c r="D23" s="6">
-        <f>(MOD($B23,2^D$2)-MOD(MOD($B23,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E23" s="6">
-        <f>(MOD($B23,2^E$2)-MOD(MOD($B23,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F23" s="6">
-        <f>(MOD($B23,2^F$2)-MOD(MOD($B23,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G23" s="6">
-        <f>(MOD($B23,2^G$2)-MOD(MOD($B23,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <f>(MOD($B23,2^H$2)-MOD(MOD($B23,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <f>(MOD($B23,2^I$2)-MOD(MOD($B23,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J23" s="3">
-        <f>(MOD($B23,2^J$2)-MOD(MOD($B23,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K23" s="3">
-        <f>(MOD($B23,2^K$2)-MOD(MOD($B23,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>8</v>
       </c>
@@ -1539,39 +1579,39 @@
         <v>1</v>
       </c>
       <c r="D24" s="6">
-        <f>(MOD($B24,2^D$2)-MOD(MOD($B24,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E24" s="6">
-        <f>(MOD($B24,2^E$2)-MOD(MOD($B24,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F24" s="6">
-        <f>(MOD($B24,2^F$2)-MOD(MOD($B24,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G24" s="6">
-        <f>(MOD($B24,2^G$2)-MOD(MOD($B24,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <f>(MOD($B24,2^H$2)-MOD(MOD($B24,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I24" s="3">
-        <f>(MOD($B24,2^I$2)-MOD(MOD($B24,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <f>(MOD($B24,2^J$2)-MOD(MOD($B24,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <f>(MOD($B24,2^K$2)-MOD(MOD($B24,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>9</v>
       </c>
@@ -1582,39 +1622,39 @@
         <v>1</v>
       </c>
       <c r="D25" s="6">
-        <f>(MOD($B25,2^D$2)-MOD(MOD($B25,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E25" s="6">
-        <f>(MOD($B25,2^E$2)-MOD(MOD($B25,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F25" s="6">
-        <f>(MOD($B25,2^F$2)-MOD(MOD($B25,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="6">
-        <f>(MOD($B25,2^G$2)-MOD(MOD($B25,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H25" s="3">
-        <f>(MOD($B25,2^H$2)-MOD(MOD($B25,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I25" s="3">
-        <f>(MOD($B25,2^I$2)-MOD(MOD($B25,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J25" s="3">
-        <f>(MOD($B25,2^J$2)-MOD(MOD($B25,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K25" s="3">
-        <f>(MOD($B25,2^K$2)-MOD(MOD($B25,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1625,39 +1665,39 @@
         <v>1</v>
       </c>
       <c r="D26" s="6">
-        <f>(MOD($B26,2^D$2)-MOD(MOD($B26,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E26" s="6">
-        <f>(MOD($B26,2^E$2)-MOD(MOD($B26,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F26" s="6">
-        <f>(MOD($B26,2^F$2)-MOD(MOD($B26,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G26" s="6">
-        <f>(MOD($B26,2^G$2)-MOD(MOD($B26,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <f>(MOD($B26,2^H$2)-MOD(MOD($B26,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I26" s="3">
-        <f>(MOD($B26,2^I$2)-MOD(MOD($B26,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <f>(MOD($B26,2^J$2)-MOD(MOD($B26,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K26" s="3">
-        <f>(MOD($B26,2^K$2)-MOD(MOD($B26,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1668,39 +1708,39 @@
         <v>1</v>
       </c>
       <c r="D27" s="6">
-        <f>(MOD($B27,2^D$2)-MOD(MOD($B27,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E27" s="6">
-        <f>(MOD($B27,2^E$2)-MOD(MOD($B27,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F27" s="6">
-        <f>(MOD($B27,2^F$2)-MOD(MOD($B27,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G27" s="6">
-        <f>(MOD($B27,2^G$2)-MOD(MOD($B27,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <f>(MOD($B27,2^H$2)-MOD(MOD($B27,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I27" s="3">
-        <f>(MOD($B27,2^I$2)-MOD(MOD($B27,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <f>(MOD($B27,2^J$2)-MOD(MOD($B27,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K27" s="3">
-        <f>(MOD($B27,2^K$2)-MOD(MOD($B27,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -1711,39 +1751,39 @@
         <v>1</v>
       </c>
       <c r="D28" s="6">
-        <f>(MOD($B28,2^D$2)-MOD(MOD($B28,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E28" s="6">
-        <f>(MOD($B28,2^E$2)-MOD(MOD($B28,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F28" s="6">
-        <f>(MOD($B28,2^F$2)-MOD(MOD($B28,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="6">
-        <f>(MOD($B28,2^G$2)-MOD(MOD($B28,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H28" s="3">
-        <f>(MOD($B28,2^H$2)-MOD(MOD($B28,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I28" s="3">
-        <f>(MOD($B28,2^I$2)-MOD(MOD($B28,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J28" s="3">
-        <f>(MOD($B28,2^J$2)-MOD(MOD($B28,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K28" s="3">
-        <f>(MOD($B28,2^K$2)-MOD(MOD($B28,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -1754,39 +1794,39 @@
         <v>1</v>
       </c>
       <c r="D29" s="6">
-        <f>(MOD($B29,2^D$2)-MOD(MOD($B29,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E29" s="6">
-        <f>(MOD($B29,2^E$2)-MOD(MOD($B29,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F29" s="6">
-        <f>(MOD($B29,2^F$2)-MOD(MOD($B29,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G29" s="6">
-        <f>(MOD($B29,2^G$2)-MOD(MOD($B29,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <f>(MOD($B29,2^H$2)-MOD(MOD($B29,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I29" s="3">
-        <f>(MOD($B29,2^I$2)-MOD(MOD($B29,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J29" s="3">
-        <f>(MOD($B29,2^J$2)-MOD(MOD($B29,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <f>(MOD($B29,2^K$2)-MOD(MOD($B29,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1797,39 +1837,39 @@
         <v>1</v>
       </c>
       <c r="D30" s="6">
-        <f>(MOD($B30,2^D$2)-MOD(MOD($B30,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E30" s="6">
-        <f>(MOD($B30,2^E$2)-MOD(MOD($B30,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F30" s="6">
-        <f>(MOD($B30,2^F$2)-MOD(MOD($B30,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G30" s="6">
-        <f>(MOD($B30,2^G$2)-MOD(MOD($B30,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H30" s="3">
-        <f>(MOD($B30,2^H$2)-MOD(MOD($B30,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I30" s="3">
-        <f>(MOD($B30,2^I$2)-MOD(MOD($B30,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J30" s="3">
-        <f>(MOD($B30,2^J$2)-MOD(MOD($B30,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K30" s="3">
-        <f>(MOD($B30,2^K$2)-MOD(MOD($B30,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -1840,35 +1880,35 @@
         <v>1</v>
       </c>
       <c r="D31" s="6">
-        <f>(MOD($B31,2^D$2)-MOD(MOD($B31,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E31" s="6">
-        <f>(MOD($B31,2^E$2)-MOD(MOD($B31,2^E$2),2^(E$2-1)))/2^(E$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F31" s="6">
-        <f>(MOD($B31,2^F$2)-MOD(MOD($B31,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G31" s="6">
-        <f>(MOD($B31,2^G$2)-MOD(MOD($B31,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H31" s="3">
-        <f>(MOD($B31,2^H$2)-MOD(MOD($B31,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I31" s="3">
-        <f>(MOD($B31,2^I$2)-MOD(MOD($B31,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J31" s="3">
-        <f>(MOD($B31,2^J$2)-MOD(MOD($B31,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K31" s="3">
-        <f>(MOD($B31,2^K$2)-MOD(MOD($B31,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1887,15 +1927,15 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="11" max="12" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="5">
@@ -1924,7 +1964,7 @@
       </c>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
         <v>55</v>
       </c>
@@ -1965,12 +2005,12 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="5">
@@ -1998,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -2039,22 +2079,22 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N6">
         <f>255/15</f>
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P8">
         <f>40*6</f>
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="5">
@@ -2082,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>1</v>
       </c>
@@ -2123,22 +2163,22 @@
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R10">
         <f>255/40</f>
         <v>6.375</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R11">
         <f>255-40*6</f>
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="5">
@@ -2170,7 +2210,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>0</v>
       </c>
@@ -2211,33 +2251,33 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="O16">
         <f>256/40</f>
         <v>6.4</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="O17">
         <f>256-6*40</f>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="5">
@@ -2265,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="10">
         <v>73</v>
       </c>
@@ -2306,14 +2346,14 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O19">
         <f>50*17*2</f>
         <v>1700</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="10">
         <v>63</v>
       </c>
@@ -2354,14 +2394,14 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O20">
         <f>30*(7*2+2)</f>
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="10">
         <v>3</v>
       </c>
@@ -2402,14 +2442,14 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O21">
         <f>20*(7*2+2)</f>
         <v>320</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2421,15 +2461,15 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="O23">
         <f>80*(12*2+11+11)</f>
         <v>3680</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="5">
@@ -2461,7 +2501,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="10">
         <v>7</v>
       </c>
@@ -2502,34 +2542,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="5">
@@ -2557,12 +2597,12 @@
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1">
         <f>HEX2DEC(A30)</f>
@@ -2601,21 +2641,21 @@
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="K33"/>
       <c r="L33"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="5">
@@ -2643,13 +2683,13 @@
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -2700,7 +2740,7 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="10">
         <v>23</v>
       </c>
@@ -2751,7 +2791,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="10">
         <v>22</v>
       </c>
@@ -2802,7 +2842,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="10">
         <v>44</v>
       </c>
@@ -2853,7 +2893,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="10">
         <v>12</v>
       </c>
@@ -2904,7 +2944,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -2916,14 +2956,14 @@
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41"/>
       <c r="K41"/>
       <c r="L41"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2935,9 +2975,9 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="5">
@@ -2965,13 +3005,13 @@
         <v>1</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="10">
         <v>34</v>
       </c>
@@ -3012,13 +3052,13 @@
         <v>0</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L44" s="1">
         <v>2.04</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="10">
         <v>11</v>
       </c>
@@ -3065,7 +3105,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="10">
         <v>21</v>
       </c>
@@ -3112,24 +3152,24 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48"/>
       <c r="K48"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="5">
@@ -3157,13 +3197,13 @@
         <v>1</v>
       </c>
       <c r="K50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="10">
         <v>0</v>
       </c>
@@ -3204,13 +3244,13 @@
         <v>0</v>
       </c>
       <c r="K51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="10">
         <v>50</v>
       </c>
@@ -3251,13 +3291,13 @@
         <v>0</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="10">
         <v>60</v>
       </c>
@@ -3298,13 +3338,13 @@
         <v>0</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="10">
         <v>21</v>
       </c>
@@ -3345,28 +3385,28 @@
         <v>1</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56"/>
       <c r="K56"/>
       <c r="L56"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57"/>
       <c r="K57"/>
       <c r="L57"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C60" s="5">
         <v>128</v>
       </c>
@@ -3392,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B61" s="1"/>
       <c r="C61" s="3">
         <v>0</v>
@@ -3419,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="str">
         <f>DEC2HEX(B62)</f>
         <v>21</v>
@@ -3453,7 +3493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>

--- a/tool/3_公式/number.xlsx
+++ b/tool/3_公式/number.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="lcd4bit" sheetId="12" r:id="rId1"/>
     <sheet name="led8bit" sheetId="13" r:id="rId2"/>
+    <sheet name="week" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
   <si>
     <t>_</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,6 +286,41 @@
   </si>
   <si>
     <t>ST7735S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>2e68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc6133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf30A2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +331,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;0x&quot;\ General"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,8 +391,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +448,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -418,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -451,6 +500,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -758,7 +813,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
@@ -828,7 +883,9 @@
       <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="8" t="s">
         <v>12</v>
@@ -1254,18 +1311,168 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="R10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="M11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>3</v>
+      </c>
+      <c r="R11" s="2">
+        <v>2</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="M12" s="1">
+        <v>4</v>
+      </c>
+      <c r="N12" s="1">
+        <f>HEX2DEC(M12)</f>
+        <v>4</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" ref="P12:P15" si="2">(MOD($N12,2^H$2)-MOD(MOD($N12,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <f t="shared" ref="Q12:Q15" si="3">(MOD($N12,2^I$2)-MOD(MOD($N12,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="shared" ref="R12:R15" si="4">(MOD($N12,2^J$2)-MOD(MOD($N12,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <f t="shared" ref="S12:S15" si="5">(MOD($N12,2^K$2)-MOD(MOD($N12,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="22" t="s">
         <v>67</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5</v>
+      </c>
+      <c r="N13" s="1">
+        <f>HEX2DEC(M13)</f>
+        <v>5</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="M14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="1">
+        <f>HEX2DEC(M14)</f>
+        <v>14</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="M15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" s="1">
+        <f>HEX2DEC(M15)</f>
+        <v>15</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="H16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
@@ -1278,35 +1485,35 @@
         <v>1</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" ref="D17:K31" si="2">(MOD($B17,2^D$2)-MOD(MOD($B17,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <f t="shared" ref="D17:K31" si="6">(MOD($B17,2^D$2)-MOD(MOD($B17,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
         <v>0</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -1321,35 +1528,35 @@
         <v>1</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1364,35 +1571,35 @@
         <v>1</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -1407,35 +1614,35 @@
         <v>1</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1450,35 +1657,35 @@
         <v>1</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -1493,35 +1700,35 @@
         <v>1</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1536,35 +1743,35 @@
         <v>1</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -1579,35 +1786,35 @@
         <v>1</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1622,35 +1829,35 @@
         <v>1</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -1665,35 +1872,35 @@
         <v>1</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1708,35 +1915,35 @@
         <v>1</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -1751,35 +1958,35 @@
         <v>1</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1794,35 +2001,35 @@
         <v>1</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -1837,35 +2044,35 @@
         <v>1</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1880,35 +2087,35 @@
         <v>1</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -1923,7 +2130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
@@ -3509,4 +3716,386 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>A3*2^(A$2)+B3*2^(B$2)+C3*2^(C$2)+D3*2^(D$2)+E3*2^(E$2)+F3*2^(F$2)+G3*2^(G$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="21">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H12" si="0">A4*2^(A$2)+B4*2^(B$2)+C4*2^(C$2)+D4*2^(D$2)+E4*2^(E$2)+F4*2^(F$2)+G4*2^(G$2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <v>474</v>
+      </c>
+      <c r="L8">
+        <f>HEX2DEC(K8)/60</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9">
+        <f>HEX2DEC(K9)/60</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="L12">
+        <f>3*60+4</f>
+        <v>184</v>
+      </c>
+      <c r="M12">
+        <f>3*60+30-12</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13">
+        <f>3*60+60-26</f>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L14">
+        <f>3*60+60-13</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tool/3_公式/number.xlsx
+++ b/tool/3_公式/number.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\save\tool_mini\tool\3_公式\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="238" yWindow="106" windowWidth="14810" windowHeight="8019"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="lcd4bit" sheetId="12" r:id="rId1"/>
     <sheet name="led8bit" sheetId="13" r:id="rId2"/>
-    <sheet name="week" sheetId="14" r:id="rId3"/>
+    <sheet name="Binary" sheetId="15" r:id="rId3"/>
+    <sheet name="week" sheetId="14" r:id="rId4"/>
+    <sheet name="simlock" sheetId="16" r:id="rId5"/>
+    <sheet name="band" sheetId="17" r:id="rId6"/>
+    <sheet name="engKey" sheetId="18" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="194">
   <si>
     <t>_</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,16 +307,6 @@
     <t>Sat</t>
   </si>
   <si>
-    <t>2e68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,6 +320,588 @@
   </si>
   <si>
     <t>bf30A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议星期设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡 1开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡 2开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡 3开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>425+02</t>
+  </si>
+  <si>
+    <t>425+03</t>
+  </si>
+  <si>
+    <t>425+04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>425+01</t>
+  </si>
+  <si>
+    <t>425+10</t>
+  </si>
+  <si>
+    <t>425+08</t>
+  </si>
+  <si>
+    <t>425+07</t>
+  </si>
+  <si>
+    <t>425+12</t>
+  </si>
+  <si>
+    <t>515+03</t>
+  </si>
+  <si>
+    <t>260+06</t>
+  </si>
+  <si>
+    <t>425+26</t>
+  </si>
+  <si>
+    <t>310+630</t>
+  </si>
+  <si>
+    <t>222+01</t>
+  </si>
+  <si>
+    <t>425+19</t>
+  </si>
+  <si>
+    <t>425+02_Cellcom</t>
+  </si>
+  <si>
+    <t>425+03_Pelephone</t>
+  </si>
+  <si>
+    <t>425+04_Pelephone (2)</t>
+  </si>
+  <si>
+    <t>425+01_Partner</t>
+  </si>
+  <si>
+    <t>425+10_Partner (2)</t>
+  </si>
+  <si>
+    <t>425+08_Golan Telecom</t>
+  </si>
+  <si>
+    <t>425+01_Golan Telecom</t>
+  </si>
+  <si>
+    <t>425+07_Hot Mobile</t>
+  </si>
+  <si>
+    <t>425+04_Hot Mobile (2)</t>
+  </si>
+  <si>
+    <t>425+12_Widely</t>
+  </si>
+  <si>
+    <t>515+03_Widely (2)</t>
+  </si>
+  <si>
+    <t>260+06_Widely (3)</t>
+  </si>
+  <si>
+    <t>425+01_Widely (4)</t>
+  </si>
+  <si>
+    <t>425+26_LB Annatel</t>
+  </si>
+  <si>
+    <t>425+01_LB Annatel</t>
+  </si>
+  <si>
+    <t>310+630_K-SIM</t>
+  </si>
+  <si>
+    <t>222+01_K-SIM</t>
+  </si>
+  <si>
+    <t>425+19_Kehilot</t>
+  </si>
+  <si>
+    <t>Network Lock</t>
+  </si>
+  <si>
+    <t>Network Subset Lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP Lock</t>
+  </si>
+  <si>
+    <t>Corporate Lock</t>
+  </si>
+  <si>
+    <t>User Lock</t>
+  </si>
+  <si>
+    <t>网络子锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络锁-默认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营商锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户锁+网络锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营商锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户锁+运营商锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户锁+网络锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户锁+运营商锁+网络锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营商锁+网络锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>352273017386340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码无需存储</t>
+  </si>
+  <si>
+    <t>该算法的密码为：</t>
+  </si>
+  <si>
+    <t>网络锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户锁+运营商锁+网络锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>355858200000101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>355858200000102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91C</t>
+  </si>
+  <si>
+    <t>7E4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>460012348652788</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0A0A0A0A0A0A0B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户锁+网络锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0:EGSM900;</t>
+  </si>
+  <si>
+    <t>0x1:DCS1800;</t>
+  </si>
+  <si>
+    <t>0x2:EGSM_DCS;</t>
+  </si>
+  <si>
+    <t>0x3:PCS1900;</t>
+  </si>
+  <si>
+    <t>0x4:GSM850;</t>
+  </si>
+  <si>
+    <t>0x5:EGSM_PCS;</t>
+  </si>
+  <si>
+    <t>0x6:GSM850_DCS;</t>
+  </si>
+  <si>
+    <t>0x7:GSM850_PCS;</t>
+  </si>
+  <si>
+    <t>0x8:GSM850_EGSM;</t>
+  </si>
+  <si>
+    <t>0x9:GSM850_EGSM_PCS;</t>
+  </si>
+  <si>
+    <t>0xa:GSM850_EGSM_DCS;</t>
+  </si>
+  <si>
+    <t>0xb:EGSM_DCS_PCS;</t>
+  </si>
+  <si>
+    <t>0xc:GSM850_EGSM_DCS_PCS;</t>
+  </si>
+  <si>
+    <t>0xd:DCS_PCS;</t>
+  </si>
+  <si>
+    <t>0xe:GSM850_DCS_PCS</t>
+  </si>
+  <si>
+    <t>解锁+与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关锁+与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁+或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关锁+或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关锁+独立+与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>IMSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>IMSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>IMSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>IMSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>IMSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>合计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试模式-按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +912,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;0x&quot;\ General"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,8 +979,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,6 +1082,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -467,7 +1131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -505,7 +1169,56 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -810,17 +1523,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="7" width="4.88671875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.875" style="1"/>
+    <col min="4" max="7" width="4.875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
@@ -884,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="8" t="s">
@@ -1321,7 +2035,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="M11" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>12</v>
@@ -1406,7 +2120,7 @@
         <v>68</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N14" s="1">
         <f>HEX2DEC(M14)</f>
@@ -1434,7 +2148,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="M15" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N15" s="1">
         <f>HEX2DEC(M15)</f>
@@ -2128,16 +2842,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="11" max="12" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="11" max="12" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
@@ -3720,382 +4435,3918 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M22"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C1" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="J1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C2" s="23">
+        <v>256</v>
+      </c>
+      <c r="D2" s="23">
+        <v>128</v>
+      </c>
+      <c r="E2" s="23">
+        <v>64</v>
+      </c>
+      <c r="F2" s="23">
+        <v>32</v>
+      </c>
+      <c r="G2" s="23">
+        <v>16</v>
+      </c>
+      <c r="H2" s="23">
+        <v>8</v>
+      </c>
+      <c r="I2" s="23">
         <v>4</v>
       </c>
-      <c r="F2" s="2">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f>A3*2^(A$2)+B3*2^(B$2)+C3*2^(C$2)+D3*2^(D$2)+E3*2^(E$2)+F3*2^(F$2)+G3*2^(G$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="21">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H12" si="0">A4*2^(A$2)+B4*2^(B$2)+C4*2^(C$2)+D4*2^(D$2)+E4*2^(E$2)+F4*2^(F$2)+G4*2^(G$2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" s="21">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
+      <c r="J2" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="21">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="21">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
+      <c r="K2" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="1">
+        <f>+HEX2DEC($A5)</f>
+        <v>31</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:F5" si="0">(MOD($B5,C$2)-MOD(MOD($B5,C$2),D$2))/D$2</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <f>(MOD($B5,G$2)-MOD(MOD($B5,G$2),H$2))/H$2</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" ref="H5:J5" si="1">(MOD($B5,H$2)-MOD(MOD($B5,H$2),I$2))/I$2</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:B13" si="2">+HEX2DEC($A6)</f>
+        <v>46</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" ref="C6:J6" si="3">(MOD($B6,C$2)-MOD(MOD($B6,C$2),D$2))/D$2</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" ref="C7:J7" si="4">(MOD($B7,C$2)-MOD(MOD($B7,C$2),D$2))/D$2</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" ref="C8:J8" si="5">(MOD($B8,C$2)-MOD(MOD($B8,C$2),D$2))/D$2</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" ref="C9:J9" si="6">(MOD($B9,C$2)-MOD(MOD($B9,C$2),D$2))/D$2</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" ref="C10:J10" si="7">(MOD($B10,C$2)-MOD(MOD($B10,C$2),D$2))/D$2</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>79</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ref="C11:J11" si="8">(MOD($B11,C$2)-MOD(MOD($B11,C$2),D$2))/D$2</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>80</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ref="C12:J12" si="9">(MOD($B12,C$2)-MOD(MOD($B12,C$2),D$2))/D$2</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" ref="C13:J13" si="10">(MOD($B13,C$2)-MOD(MOD($B13,C$2),D$2))/D$2</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="1">
+        <f>+HEX2DEC($A14)</f>
+        <v>127</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" ref="C14:J16" si="11">(MOD($B14,C$2)-MOD(MOD($B14,C$2),D$2))/D$2</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="1">
+        <f>+HEX2DEC($A15)</f>
+        <v>11</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="21">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="K8">
-        <v>474</v>
-      </c>
-      <c r="L8">
-        <f>HEX2DEC(K8)/60</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="21">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9">
-        <f>HEX2DEC(K9)/60</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="L12">
-        <f>3*60+4</f>
-        <v>184</v>
-      </c>
-      <c r="M12">
-        <f>3*60+30-12</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13">
-        <f>3*60+60-26</f>
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="L14">
-        <f>3*60+60-13</f>
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20">
-        <v>12</v>
-      </c>
-      <c r="G20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21">
-        <v>13</v>
-      </c>
-      <c r="G21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="F22">
-        <v>12</v>
-      </c>
-      <c r="G22">
-        <v>30</v>
+      <c r="B16" s="1">
+        <f>+HEX2DEC($A16)</f>
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A2:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>A3*2^(A$2)+B3*2^(B$2)+C3*2^(C$2)+D3*2^(D$2)+E3*2^(E$2)+F3*2^(F$2)+G3*2^(G$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="21">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H12" si="0">A4*2^(A$2)+B4*2^(B$2)+C4*2^(C$2)+D4*2^(D$2)+E4*2^(E$2)+F4*2^(F$2)+G4*2^(G$2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:M131"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="11" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D1" s="28">
+        <v>128</v>
+      </c>
+      <c r="E1" s="28">
+        <v>64</v>
+      </c>
+      <c r="F1" s="28">
+        <v>32</v>
+      </c>
+      <c r="G1" s="28">
+        <v>16</v>
+      </c>
+      <c r="H1" s="28">
+        <v>8</v>
+      </c>
+      <c r="I1" s="28">
+        <v>4</v>
+      </c>
+      <c r="J1" s="28">
+        <v>2</v>
+      </c>
+      <c r="K1" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D2" s="5">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>DEC2HEX(B4)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:K13" si="0">(MOD($B4,2^D$2)-MOD(MOD($B4,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" ref="C5:C20" si="1">DEC2HEX(B5)</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="24">
+        <v>11</v>
+      </c>
+      <c r="C14" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:K21" si="2">(MOD($B14,2^D$2)-MOD(MOD($B14,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>E</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="24">
+        <v>19</v>
+      </c>
+      <c r="C19" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="24">
+        <v>35</v>
+      </c>
+      <c r="C20" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B21" s="29">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f>DEC2HEX(B21)</f>
+        <v>2B</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="29">
+        <v>67</v>
+      </c>
+      <c r="C22" s="44" t="str">
+        <f t="shared" ref="C22:C26" si="3">DEC2HEX(B22)</f>
+        <v>43</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:K26" si="4">(MOD($B22,2^D$2)-MOD(MOD($B22,2^D$2),2^(D$2-1)))/2^(D$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="29">
+        <v>131</v>
+      </c>
+      <c r="C23" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="29">
+        <v>139</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>8B</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <f>(MOD($B24,2^H$2)-MOD(MOD($B24,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="29">
+        <v>163</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>A3</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <f>(MOD($B25,2^F$2)-MOD(MOD($B25,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <f>(MOD($B25,2^H$2)-MOD(MOD($B25,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="29">
+        <v>171</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>AB</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <f>(MOD($B26,2^F$2)-MOD(MOD($B26,2^F$2),2^(F$2-1)))/2^(F$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <f>(MOD($B26,2^H$2)-MOD(MOD($B26,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B27" s="29"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="24">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="24">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="24">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="29">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="29">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="24">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="24">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="24">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="24">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="24">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="24">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="24">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="24">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="29">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="29">
+        <v>163</v>
+      </c>
+      <c r="C43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="24">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="24">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="24">
+        <v>35</v>
+      </c>
+      <c r="C46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="J50" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="42" t="str">
+        <f>DEC2HEX(B51)</f>
+        <v>1</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3">
+        <f t="shared" ref="G51:K60" si="5">(MOD($B51,2^G$2)-MOD(MOD($B51,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f t="shared" ref="C52:C69" si="6">DEC2HEX(B52)</f>
+        <v>2</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K52" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+      <c r="C53" s="30" t="str">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K53" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="1">
+        <v>4</v>
+      </c>
+      <c r="C54" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J54" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="1">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B56" s="1">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J56" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K56" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B57" s="1">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J57" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K57" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="1">
+        <v>8</v>
+      </c>
+      <c r="C58" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B59" s="1">
+        <v>9</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B60" s="1">
+        <v>10</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>A</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K60" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B61" s="24">
+        <v>11</v>
+      </c>
+      <c r="C61" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3">
+        <f t="shared" ref="G61:K69" si="7">(MOD($B61,2^G$2)-MOD(MOD($B61,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K61" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B62" s="1">
+        <v>12</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>C</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I62" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J62" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B63" s="1">
+        <v>13</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>D</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I63" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J63" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B64" s="1">
+        <v>14</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>E</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I64" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J64" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K64" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B65" s="1">
+        <v>15</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I65" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J65" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K65" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" s="24">
+        <v>16</v>
+      </c>
+      <c r="C66" s="41" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="1">
+        <v>17</v>
+      </c>
+      <c r="C67" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H67" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="1">
+        <v>20</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H68" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J68" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" s="1">
+        <v>21</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J69" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="24">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="24">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>128</v>
+      </c>
+      <c r="I72" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="J72">
+        <v>425</v>
+      </c>
+      <c r="K72" s="1" t="str">
+        <f>DEC2HEX(J72)</f>
+        <v>1A9</v>
+      </c>
+      <c r="L72" t="s">
+        <v>149</v>
+      </c>
+      <c r="M72" s="1">
+        <f>HEX2DEC(L72)</f>
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="24">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>128</v>
+      </c>
+      <c r="I73" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="J73">
+        <v>515</v>
+      </c>
+      <c r="K73" s="1" t="str">
+        <f t="shared" ref="K73:K76" si="8">DEC2HEX(J73)</f>
+        <v>203</v>
+      </c>
+      <c r="L73" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="M73" s="1">
+        <f>HEX2DEC(L73)</f>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" s="29">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>132</v>
+      </c>
+      <c r="I74" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J74">
+        <v>260</v>
+      </c>
+      <c r="K74" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" s="29">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>131</v>
+      </c>
+      <c r="I75" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="J75">
+        <v>310</v>
+      </c>
+      <c r="K75" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" s="24">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>128</v>
+      </c>
+      <c r="I76" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="J76">
+        <v>222</v>
+      </c>
+      <c r="K76" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>DE</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" s="24">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>128</v>
+      </c>
+      <c r="I77" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="J77">
+        <v>630</v>
+      </c>
+      <c r="K77" s="1" t="str">
+        <f>DEC2HEX(J77)</f>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" s="24">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>128</v>
+      </c>
+      <c r="I78" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="J78">
+        <v>26</v>
+      </c>
+      <c r="K78" s="1" t="str">
+        <f>DEC2HEX(J78)</f>
+        <v>1A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79" s="24">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>128</v>
+      </c>
+      <c r="I79" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="J79">
+        <v>19</v>
+      </c>
+      <c r="K79" s="1" t="str">
+        <f>DEC2HEX(J79)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" s="24">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>128</v>
+      </c>
+      <c r="I80" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="J80">
+        <v>12</v>
+      </c>
+      <c r="K80" s="1" t="str">
+        <f>DEC2HEX(J80)</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" s="24">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>128</v>
+      </c>
+      <c r="I81" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J81">
+        <v>10</v>
+      </c>
+      <c r="K81" s="1" t="str">
+        <f>DEC2HEX(J81)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" s="24">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>128</v>
+      </c>
+      <c r="I82" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" s="24">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>128</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" s="29">
+        <v>20</v>
+      </c>
+      <c r="C84" t="s">
+        <v>134</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J84">
+        <v>460</v>
+      </c>
+      <c r="K84" s="1" t="str">
+        <f>DEC2HEX(J84)</f>
+        <v>1CC</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" s="29">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>134</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" s="24">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" s="24">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" s="24">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I93" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A94" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B94" s="19">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1" t="str">
+        <f t="shared" ref="C94:C98" si="9">DEC2HEX(B94)</f>
+        <v>0</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3">
+        <f t="shared" ref="G94:K98" si="10">(MOD($B94,2^G$2)-MOD(MOD($B94,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A95" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" s="1">
+        <v>4</v>
+      </c>
+      <c r="C95" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I95" s="36">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J95" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K95" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A96" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B96" s="1">
+        <v>8</v>
+      </c>
+      <c r="C96" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H96" s="37">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I96" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A97" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" s="1">
+        <v>12</v>
+      </c>
+      <c r="C97" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I97" s="3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J97" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K97" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A98" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B98" s="1">
+        <v>20</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="38">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H98" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J98" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K98" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A99" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B99" s="40"/>
+      <c r="C99" s="9" t="str">
+        <f>DEC2HEX(2^8)</f>
+        <v>100</v>
+      </c>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="31"/>
+      <c r="I99" s="31"/>
+      <c r="J99" s="31"/>
+      <c r="K99" s="31"/>
+      <c r="L99" s="31"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A100" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100" s="40"/>
+      <c r="C100" s="9" t="str">
+        <f>DEC2HEX(2^9)</f>
+        <v>200</v>
+      </c>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
+      <c r="J100" s="31"/>
+      <c r="K100" s="31"/>
+      <c r="L100" s="31"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A101" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B101" s="40"/>
+      <c r="C101" s="9" t="str">
+        <f>DEC2HEX(2^10)</f>
+        <v>400</v>
+      </c>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="31"/>
+      <c r="J101" s="31"/>
+      <c r="K101" s="31"/>
+      <c r="L101" s="31"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A102" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B102" s="40">
+        <f>HEX2DEC(C102)</f>
+        <v>2048</v>
+      </c>
+      <c r="C102" s="9" t="str">
+        <f>DEC2HEX(2^11)</f>
+        <v>800</v>
+      </c>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="31"/>
+      <c r="I102" s="31"/>
+      <c r="J102" s="31"/>
+      <c r="K102" s="31"/>
+      <c r="L102" s="31"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A103" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103" s="40"/>
+      <c r="C103" s="9" t="str">
+        <f>DEC2HEX(2^12)</f>
+        <v>1000</v>
+      </c>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="31"/>
+      <c r="J103" s="31"/>
+      <c r="K103" s="31"/>
+      <c r="L103" s="31"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A104" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B104" s="40">
+        <v>12</v>
+      </c>
+      <c r="C104" s="31"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="31"/>
+      <c r="J104" s="31"/>
+      <c r="K104" s="31"/>
+      <c r="L104" s="31"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A105" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B105" s="39" t="str">
+        <f>DEC2HEX(SUM(B99:B104))</f>
+        <v>80C</v>
+      </c>
+      <c r="C105" s="31"/>
+      <c r="H105" s="31"/>
+      <c r="I105" s="31"/>
+      <c r="J105" s="31"/>
+      <c r="K105" s="31"/>
+      <c r="L105" s="31"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B106" s="1"/>
+      <c r="C106" s="31"/>
+      <c r="H106" s="31"/>
+      <c r="I106" s="31"/>
+      <c r="J106" s="31"/>
+      <c r="K106" s="31"/>
+      <c r="L106" s="31"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A107" s="31"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="31"/>
+      <c r="H107" s="31"/>
+      <c r="I107" s="31"/>
+      <c r="J107" s="31"/>
+      <c r="K107" s="31"/>
+      <c r="L107" s="31"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A108" s="31"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="31"/>
+      <c r="J108" s="31"/>
+      <c r="K108" s="31"/>
+      <c r="L108" s="31"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A109" s="31"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
+      <c r="H109" s="31"/>
+      <c r="I109" s="31"/>
+      <c r="J109" s="31"/>
+      <c r="K109" s="31"/>
+      <c r="L109" s="31"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A110" s="31"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
+      <c r="H110" s="31"/>
+      <c r="I110" s="31"/>
+      <c r="J110" s="31"/>
+      <c r="K110" s="31"/>
+      <c r="L110" s="31"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A111" s="31"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="31"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="31"/>
+      <c r="J111" s="31"/>
+      <c r="K111" s="31"/>
+      <c r="L111" s="31"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A112" s="31"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="31"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="31"/>
+      <c r="K112" s="31"/>
+      <c r="L112" s="31"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A113" s="31"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
+      <c r="J113" s="31"/>
+      <c r="K113" s="31"/>
+      <c r="L113" s="31"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A114" s="31"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A115" s="31"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D122" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E122" s="31"/>
+      <c r="F122" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G122" s="31"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D123" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E123" s="31"/>
+      <c r="F123" s="31" t="str">
+        <f>RIGHT(MID(D123,1,1)+MID(D123,2,1),1)&amp;RIGHT(MID(D123,3,1)+MID(D123,4,1),1)&amp;RIGHT(MID(D123,5,1)+MID(D123,6,1),1)&amp;RIGHT(MID(D123,7,1)+MID(D123,8,1),1)&amp;RIGHT(MID(D123,9,1)+MID(D123,10,1),1)&amp;RIGHT(MID(D123,11,1)+MID(D123,12,1),1)&amp;RIGHT(MID(D123,13,1)+MID(D123,14,1),1)&amp;MID(D123,1,1)</f>
+        <v>84010473</v>
+      </c>
+      <c r="G123" s="31"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D124" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E124" s="31"/>
+      <c r="F124" s="31" t="str">
+        <f>RIGHT(MID(D124,1,1)+MID(D124,2,1),1)&amp;RIGHT(MID(D124,3,1)+MID(D124,4,1),1)&amp;RIGHT(MID(D124,5,1)+MID(D124,6,1),1)&amp;RIGHT(MID(D124,7,1)+MID(D124,8,1),1)&amp;RIGHT(MID(D124,9,1)+MID(D124,10,1),1)&amp;RIGHT(MID(D124,11,1)+MID(D124,12,1),1)&amp;RIGHT(MID(D124,13,1)+MID(D124,14,1),1)&amp;MID(D124,1,1)</f>
+        <v>83320013</v>
+      </c>
+      <c r="G124" s="31"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D125" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E125" s="31"/>
+      <c r="F125" s="31" t="str">
+        <f>RIGHT(MID(D125,1,1)+MID(D125,2,1),1)&amp;RIGHT(MID(D125,3,1)+MID(D125,4,1),1)&amp;RIGHT(MID(D125,5,1)+MID(D125,6,1),1)&amp;RIGHT(MID(D125,7,1)+MID(D125,8,1),1)&amp;RIGHT(MID(D125,9,1)+MID(D125,10,1),1)&amp;RIGHT(MID(D125,11,1)+MID(D125,12,1),1)&amp;RIGHT(MID(D125,13,1)+MID(D125,14,1),1)&amp;MID(D125,1,1)</f>
+        <v>83320013</v>
+      </c>
+      <c r="G125" s="31"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D126" s="31"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="31"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="31"/>
+      <c r="G127" s="31"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="31"/>
+      <c r="G128" s="31"/>
+    </row>
+    <row r="129" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D129" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E129" s="31"/>
+      <c r="F129" s="31"/>
+      <c r="G129" s="31"/>
+    </row>
+    <row r="130" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D130" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="F130" s="31" t="str">
+        <f>MID(D130,2,1)&amp;MID(D130,1,1)&amp;"_"&amp;MID(D130,4,1)&amp;MID(D130,3,1)&amp;"_"&amp;MID(D130,6,1)&amp;MID(D130,5,1)&amp;"_"&amp;MID(D130,8,1)&amp;MID(D130,7,1)&amp;"_"&amp;MID(D130,10,1)&amp;MID(D130,9,1)&amp;"_"&amp;MID(D130,12,1)&amp;MID(D130,11,1)&amp;"_"&amp;MID(D130,14,1)&amp;MID(D130,13,1)&amp;"_0"&amp;MID(D130,15,1)</f>
+        <v>0A_0A_0A_0A_0A_0A_0A_0B</v>
+      </c>
+      <c r="G130" s="31"/>
+    </row>
+    <row r="131" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D131" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="E131" s="31"/>
+      <c r="F131" s="31" t="str">
+        <f t="shared" ref="F131" si="11">MID(D131,2,1)&amp;MID(D131,1,1)&amp;"_"&amp;MID(D131,4,1)&amp;MID(D131,3,1)&amp;"_"&amp;MID(D131,6,1)&amp;MID(D131,5,1)&amp;"_"&amp;MID(D131,8,1)&amp;MID(D131,7,1)&amp;"_"&amp;MID(D131,10,1)&amp;MID(D131,9,1)&amp;"_"&amp;MID(D131,12,1)&amp;MID(D131,11,1)&amp;"_"&amp;MID(D131,14,1)&amp;MID(D131,13,1)&amp;"_0"&amp;MID(D131,15,1)</f>
+        <v>64_00_21_43_68_25_87_08</v>
+      </c>
+      <c r="G131" s="31"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="B2:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B2">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <f>HEX2DEC(B2)</f>
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C5" si="0">HEX2DEC(B3)</f>
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E12" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E14" s="35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="2">
+        <f>SUM(E4:I4)</f>
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:D8" si="0">SUM(E5:I5)</f>
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(E8:I8)</f>
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E21">
+        <f>2099-1980</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E22">
+        <f>5859-5740</f>
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tool/3_公式/number.xlsx
+++ b/tool/3_公式/number.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="lcd4bit" sheetId="12" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="188">
   <si>
     <t>_</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -667,6 +667,50 @@
   </si>
   <si>
     <t>关锁+独立+与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试模式-按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -690,7 +734,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>8</t>
+      <t>x</t>
     </r>
     <r>
       <rPr>
@@ -704,206 +748,6 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <r>
-      <t>IMSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的前</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>IMSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的前</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>IMSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的前</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>IMSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的前</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>合计</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试模式-按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -912,7 +756,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;0x&quot;\ General"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1020,12 +864,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -1131,7 +969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1201,9 +1039,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5327,10 +5162,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:P132"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5837,7 +5672,7 @@
       <c r="B14" s="24">
         <v>11</v>
       </c>
-      <c r="C14" s="43" t="str">
+      <c r="C14" s="42" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
@@ -6048,7 +5883,7 @@
       <c r="B19" s="24">
         <v>19</v>
       </c>
-      <c r="C19" s="44" t="str">
+      <c r="C19" s="43" t="str">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -6092,7 +5927,7 @@
       <c r="B20" s="24">
         <v>35</v>
       </c>
-      <c r="C20" s="44" t="str">
+      <c r="C20" s="43" t="str">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
@@ -6177,7 +6012,7 @@
       <c r="B22" s="29">
         <v>67</v>
       </c>
-      <c r="C22" s="44" t="str">
+      <c r="C22" s="43" t="str">
         <f t="shared" ref="C22:C26" si="3">DEC2HEX(B22)</f>
         <v>43</v>
       </c>
@@ -6221,7 +6056,7 @@
       <c r="B23" s="29">
         <v>131</v>
       </c>
-      <c r="C23" s="44" t="str">
+      <c r="C23" s="43" t="str">
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
@@ -6629,7 +6464,7 @@
       <c r="B51" s="1">
         <v>1</v>
       </c>
-      <c r="C51" s="42" t="str">
+      <c r="C51" s="41" t="str">
         <f>DEC2HEX(B51)</f>
         <v>1</v>
       </c>
@@ -6731,7 +6566,7 @@
       <c r="B54" s="1">
         <v>4</v>
       </c>
-      <c r="C54" s="41" t="str">
+      <c r="C54" s="40" t="str">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -6865,7 +6700,7 @@
       <c r="B58" s="1">
         <v>8</v>
       </c>
-      <c r="C58" s="41" t="str">
+      <c r="C58" s="40" t="str">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
@@ -7124,7 +6959,7 @@
       <c r="B66" s="24">
         <v>16</v>
       </c>
-      <c r="C66" s="41" t="str">
+      <c r="C66" s="40" t="str">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -7471,7 +7306,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>113</v>
       </c>
@@ -7492,7 +7327,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>114</v>
       </c>
@@ -7506,7 +7341,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>115</v>
       </c>
@@ -7520,7 +7355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>116</v>
       </c>
@@ -7541,7 +7376,7 @@
         <v>1CC</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>117</v>
       </c>
@@ -7555,7 +7390,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>118</v>
       </c>
@@ -7566,7 +7401,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>119</v>
       </c>
@@ -7577,7 +7412,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>120</v>
       </c>
@@ -7588,7 +7423,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -7604,208 +7439,250 @@
         <v>139</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A94" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="B94" s="19">
-        <v>0</v>
-      </c>
-      <c r="C94" s="1" t="str">
-        <f t="shared" ref="C94:C98" si="9">DEC2HEX(B94)</f>
-        <v>0</v>
-      </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3">
-        <f t="shared" ref="G94:K98" si="10">(MOD($B94,2^G$2)-MOD(MOD($B94,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I94" s="36">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A95" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="B95" s="1">
-        <v>4</v>
-      </c>
-      <c r="C95" s="1" t="str">
+    <row r="94" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <f t="shared" ref="A94:P94" si="9">2^(12-COLUMN())</f>
+        <v>2048</v>
+      </c>
+      <c r="B94">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H95" s="37">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I95" s="36">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J95" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K95" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A96" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="B96" s="1">
-        <v>8</v>
-      </c>
-      <c r="C96" s="1" t="str">
+        <v>1024</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="9"/>
+        <v>512</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="9"/>
+        <v>256</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="9"/>
+        <v>128</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="I94">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
+      <c r="J94">
+        <f>2^(12-COLUMN())</f>
+        <v>4</v>
+      </c>
+      <c r="K94">
+        <f t="shared" ref="K94:P94" si="10">2^(12-COLUMN())</f>
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="10"/>
+        <v>0.25</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="10"/>
+        <v>0.125</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="10"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A95" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B95" s="19">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1" t="str">
+        <f t="shared" ref="C95:C99" si="11">DEC2HEX(B95)</f>
+        <v>0</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3">
+        <f>(MOD($B95,2^G$2)-MOD(MOD($B95,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="3">
+        <f>(MOD($B95,2^H$2)-MOD(MOD($B95,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K95" s="36">
+        <f>(MOD($B95,2^I$2)-MOD(MOD($B95,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="L95" s="3">
+        <f>(MOD($B95,2^J$2)-MOD(MOD($B95,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="M95" s="3">
+        <f>(MOD($B95,2^K$2)-MOD(MOD($B95,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A96" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96" s="1">
+        <v>4</v>
+      </c>
+      <c r="C96" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
       <c r="F96" s="3"/>
-      <c r="G96" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H96" s="37">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
       <c r="I96" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+        <f>(MOD($B96,2^G$2)-MOD(MOD($B96,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="37">
+        <f>(MOD($B96,2^H$2)-MOD(MOD($B96,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K96" s="36">
+        <f>(MOD($B96,2^I$2)-MOD(MOD($B96,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="L96" s="3">
+        <f>(MOD($B96,2^J$2)-MOD(MOD($B96,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <f>(MOD($B96,2^K$2)-MOD(MOD($B96,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A97" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B97" s="1">
+        <v>8</v>
+      </c>
+      <c r="C97" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3">
+        <f>(MOD($B97,2^G$2)-MOD(MOD($B97,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="37">
+        <f>(MOD($B97,2^H$2)-MOD(MOD($B97,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="K97" s="3">
+        <f>(MOD($B97,2^I$2)-MOD(MOD($B97,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="L97" s="3">
+        <f>(MOD($B97,2^J$2)-MOD(MOD($B97,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <f>(MOD($B97,2^K$2)-MOD(MOD($B97,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A98" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B98" s="1">
         <v>12</v>
       </c>
-      <c r="C97" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="C98" s="24" t="str">
+        <f t="shared" si="11"/>
         <v>C</v>
       </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H97" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I97" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J97" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K97" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A98" s="27" t="s">
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="38">
+        <f>(MOD($B98,2^G$2)-MOD(MOD($B98,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="3">
+        <f>(MOD($B98,2^H$2)-MOD(MOD($B98,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="K98" s="3">
+        <f>(MOD($B98,2^I$2)-MOD(MOD($B98,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="L98" s="3">
+        <f>(MOD($B98,2^J$2)-MOD(MOD($B98,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <f>(MOD($B98,2^K$2)-MOD(MOD($B98,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A99" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B99" s="1">
         <v>20</v>
       </c>
-      <c r="C98" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="C99" s="1" t="str">
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="38">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="H98" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I98" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J98" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K98" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A99" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="B99" s="40"/>
-      <c r="C99" s="9" t="str">
-        <f>DEC2HEX(2^8)</f>
-        <v>100</v>
-      </c>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="31"/>
-      <c r="H99" s="31"/>
-      <c r="I99" s="31"/>
-      <c r="J99" s="31"/>
-      <c r="K99" s="31"/>
-      <c r="L99" s="31"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="38">
+        <f>(MOD($B99,2^G$2)-MOD(MOD($B99,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="J99" s="3">
+        <f>(MOD($B99,2^H$2)-MOD(MOD($B99,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K99" s="3">
+        <f>(MOD($B99,2^I$2)-MOD(MOD($B99,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="L99" s="3">
+        <f>(MOD($B99,2^J$2)-MOD(MOD($B99,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <f>(MOD($B99,2^K$2)-MOD(MOD($B99,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A100" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="B100" s="40"/>
-      <c r="C100" s="9" t="str">
-        <f>DEC2HEX(2^9)</f>
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="D100" s="31"/>
       <c r="E100" s="31"/>
@@ -7817,14 +7694,11 @@
       <c r="K100" s="31"/>
       <c r="L100" s="31"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A101" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="B101" s="40"/>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B101" s="39"/>
       <c r="C101" s="9" t="str">
-        <f>DEC2HEX(2^10)</f>
-        <v>400</v>
+        <f>DEC2HEX(2^9)</f>
+        <v>200</v>
       </c>
       <c r="D101" s="31"/>
       <c r="E101" s="31"/>
@@ -7836,18 +7710,10 @@
       <c r="K101" s="31"/>
       <c r="L101" s="31"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A102" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="B102" s="40">
-        <f>HEX2DEC(C102)</f>
-        <v>2048</v>
-      </c>
-      <c r="C102" s="9" t="str">
-        <f>DEC2HEX(2^11)</f>
-        <v>800</v>
-      </c>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A102" s="31"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="31"/>
       <c r="D102" s="31"/>
       <c r="E102" s="31"/>
       <c r="F102" s="31"/>
@@ -7858,15 +7724,10 @@
       <c r="K102" s="31"/>
       <c r="L102" s="31"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A103" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B103" s="40"/>
-      <c r="C103" s="9" t="str">
-        <f>DEC2HEX(2^12)</f>
-        <v>1000</v>
-      </c>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A103" s="31"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="31"/>
       <c r="D103" s="31"/>
       <c r="E103" s="31"/>
       <c r="F103" s="31"/>
@@ -7877,28 +7738,23 @@
       <c r="K103" s="31"/>
       <c r="L103" s="31"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A104" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="B104" s="40">
-        <v>12</v>
-      </c>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A104" s="31"/>
+      <c r="B104" s="31"/>
       <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="31"/>
       <c r="H104" s="31"/>
       <c r="I104" s="31"/>
       <c r="J104" s="31"/>
       <c r="K104" s="31"/>
       <c r="L104" s="31"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A105" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="B105" s="39" t="str">
-        <f>DEC2HEX(SUM(B99:B104))</f>
-        <v>80C</v>
-      </c>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A105" s="31"/>
+      <c r="B105" s="31"/>
       <c r="C105" s="31"/>
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
@@ -7906,8 +7762,9 @@
       <c r="K105" s="31"/>
       <c r="L105" s="31"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B106" s="1"/>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A106" s="31"/>
+      <c r="B106" s="31"/>
       <c r="C106" s="31"/>
       <c r="H106" s="31"/>
       <c r="I106" s="31"/>
@@ -7915,7 +7772,7 @@
       <c r="K106" s="31"/>
       <c r="L106" s="31"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107" s="31"/>
       <c r="B107" s="31"/>
       <c r="C107" s="31"/>
@@ -7925,7 +7782,7 @@
       <c r="K107" s="31"/>
       <c r="L107" s="31"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A108" s="31"/>
       <c r="B108" s="31"/>
       <c r="C108" s="31"/>
@@ -7935,7 +7792,7 @@
       <c r="K108" s="31"/>
       <c r="L108" s="31"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A109" s="31"/>
       <c r="B109" s="31"/>
       <c r="C109" s="31"/>
@@ -7945,7 +7802,7 @@
       <c r="K109" s="31"/>
       <c r="L109" s="31"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A110" s="31"/>
       <c r="B110" s="31"/>
       <c r="C110" s="31"/>
@@ -7955,7 +7812,7 @@
       <c r="K110" s="31"/>
       <c r="L110" s="31"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A111" s="31"/>
       <c r="B111" s="31"/>
       <c r="C111" s="31"/>
@@ -7965,7 +7822,7 @@
       <c r="K111" s="31"/>
       <c r="L111" s="31"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A112" s="31"/>
       <c r="B112" s="31"/>
       <c r="C112" s="31"/>
@@ -7987,45 +7844,44 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A114" s="31"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="31"/>
+      <c r="H114" s="31"/>
+      <c r="I114" s="31"/>
+      <c r="J114" s="31"/>
+      <c r="K114" s="31"/>
+      <c r="L114" s="31"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A115" s="31"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D122" s="32" t="s">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A116" s="31"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D123" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="E122" s="31"/>
-      <c r="F122" s="31" t="s">
+      <c r="E123" s="31"/>
+      <c r="F123" s="31" t="s">
         <v>144</v>
-      </c>
-      <c r="G122" s="31"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D123" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="E123" s="31"/>
-      <c r="F123" s="31" t="str">
-        <f>RIGHT(MID(D123,1,1)+MID(D123,2,1),1)&amp;RIGHT(MID(D123,3,1)+MID(D123,4,1),1)&amp;RIGHT(MID(D123,5,1)+MID(D123,6,1),1)&amp;RIGHT(MID(D123,7,1)+MID(D123,8,1),1)&amp;RIGHT(MID(D123,9,1)+MID(D123,10,1),1)&amp;RIGHT(MID(D123,11,1)+MID(D123,12,1),1)&amp;RIGHT(MID(D123,13,1)+MID(D123,14,1),1)&amp;MID(D123,1,1)</f>
-        <v>84010473</v>
       </c>
       <c r="G123" s="31"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D124" s="33" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E124" s="31"/>
       <c r="F124" s="31" t="str">
         <f>RIGHT(MID(D124,1,1)+MID(D124,2,1),1)&amp;RIGHT(MID(D124,3,1)+MID(D124,4,1),1)&amp;RIGHT(MID(D124,5,1)+MID(D124,6,1),1)&amp;RIGHT(MID(D124,7,1)+MID(D124,8,1),1)&amp;RIGHT(MID(D124,9,1)+MID(D124,10,1),1)&amp;RIGHT(MID(D124,11,1)+MID(D124,12,1),1)&amp;RIGHT(MID(D124,13,1)+MID(D124,14,1),1)&amp;MID(D124,1,1)</f>
-        <v>83320013</v>
+        <v>84010473</v>
       </c>
       <c r="G124" s="31"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D125" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E125" s="31"/>
       <c r="F125" s="31" t="str">
@@ -8035,9 +7891,14 @@
       <c r="G125" s="31"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D126" s="31"/>
+      <c r="D126" s="33" t="s">
+        <v>148</v>
+      </c>
       <c r="E126" s="31"/>
-      <c r="F126" s="31"/>
+      <c r="F126" s="31" t="str">
+        <f>RIGHT(MID(D126,1,1)+MID(D126,2,1),1)&amp;RIGHT(MID(D126,3,1)+MID(D126,4,1),1)&amp;RIGHT(MID(D126,5,1)+MID(D126,6,1),1)&amp;RIGHT(MID(D126,7,1)+MID(D126,8,1),1)&amp;RIGHT(MID(D126,9,1)+MID(D126,10,1),1)&amp;RIGHT(MID(D126,11,1)+MID(D126,12,1),1)&amp;RIGHT(MID(D126,13,1)+MID(D126,14,1),1)&amp;MID(D126,1,1)</f>
+        <v>83320013</v>
+      </c>
       <c r="G126" s="31"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.15">
@@ -8053,33 +7914,39 @@
       <c r="G128" s="31"/>
     </row>
     <row r="129" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D129" s="31" t="s">
-        <v>151</v>
-      </c>
+      <c r="D129" s="31"/>
       <c r="E129" s="31"/>
       <c r="F129" s="31"/>
       <c r="G129" s="31"/>
     </row>
     <row r="130" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D130" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E130" s="31"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="31"/>
+    </row>
+    <row r="131" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D131" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="F130" s="31" t="str">
-        <f>MID(D130,2,1)&amp;MID(D130,1,1)&amp;"_"&amp;MID(D130,4,1)&amp;MID(D130,3,1)&amp;"_"&amp;MID(D130,6,1)&amp;MID(D130,5,1)&amp;"_"&amp;MID(D130,8,1)&amp;MID(D130,7,1)&amp;"_"&amp;MID(D130,10,1)&amp;MID(D130,9,1)&amp;"_"&amp;MID(D130,12,1)&amp;MID(D130,11,1)&amp;"_"&amp;MID(D130,14,1)&amp;MID(D130,13,1)&amp;"_0"&amp;MID(D130,15,1)</f>
+      <c r="F131" s="31" t="str">
+        <f>MID(D131,2,1)&amp;MID(D131,1,1)&amp;"_"&amp;MID(D131,4,1)&amp;MID(D131,3,1)&amp;"_"&amp;MID(D131,6,1)&amp;MID(D131,5,1)&amp;"_"&amp;MID(D131,8,1)&amp;MID(D131,7,1)&amp;"_"&amp;MID(D131,10,1)&amp;MID(D131,9,1)&amp;"_"&amp;MID(D131,12,1)&amp;MID(D131,11,1)&amp;"_"&amp;MID(D131,14,1)&amp;MID(D131,13,1)&amp;"_0"&amp;MID(D131,15,1)</f>
         <v>0A_0A_0A_0A_0A_0A_0A_0B</v>
       </c>
-      <c r="G130" s="31"/>
-    </row>
-    <row r="131" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D131" s="33" t="s">
+      <c r="G131" s="31"/>
+    </row>
+    <row r="132" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D132" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="E131" s="31"/>
-      <c r="F131" s="31" t="str">
-        <f t="shared" ref="F131" si="11">MID(D131,2,1)&amp;MID(D131,1,1)&amp;"_"&amp;MID(D131,4,1)&amp;MID(D131,3,1)&amp;"_"&amp;MID(D131,6,1)&amp;MID(D131,5,1)&amp;"_"&amp;MID(D131,8,1)&amp;MID(D131,7,1)&amp;"_"&amp;MID(D131,10,1)&amp;MID(D131,9,1)&amp;"_"&amp;MID(D131,12,1)&amp;MID(D131,11,1)&amp;"_"&amp;MID(D131,14,1)&amp;MID(D131,13,1)&amp;"_0"&amp;MID(D131,15,1)</f>
+      <c r="E132" s="31"/>
+      <c r="F132" s="31" t="str">
+        <f t="shared" ref="F132" si="12">MID(D132,2,1)&amp;MID(D132,1,1)&amp;"_"&amp;MID(D132,4,1)&amp;MID(D132,3,1)&amp;"_"&amp;MID(D132,6,1)&amp;MID(D132,5,1)&amp;"_"&amp;MID(D132,8,1)&amp;MID(D132,7,1)&amp;"_"&amp;MID(D132,10,1)&amp;MID(D132,9,1)&amp;"_"&amp;MID(D132,12,1)&amp;MID(D132,11,1)&amp;"_"&amp;MID(D132,14,1)&amp;MID(D132,13,1)&amp;"_0"&amp;MID(D132,15,1)</f>
         <v>64_00_21_43_68_25_87_08</v>
       </c>
-      <c r="G131" s="31"/>
+      <c r="G132" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8213,23 +8080,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D4" s="2">
         <f>SUM(E4:I4)</f>
@@ -8247,13 +8114,13 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D8" si="0">SUM(E5:I5)</f>
+        <f t="shared" ref="D5:D7" si="0">SUM(E5:I5)</f>
         <v>22</v>
       </c>
       <c r="E5">
@@ -8268,10 +8135,10 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
@@ -8289,10 +8156,10 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
@@ -8310,10 +8177,10 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D8" s="2">
         <f>SUM(E8:I8)</f>

--- a/tool/3_公式/number.xlsx
+++ b/tool/3_公式/number.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="192">
   <si>
     <t>_</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -747,6 +747,20 @@
       <t>位</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平</t>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1376,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V44" sqref="V44"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2023,7 +2037,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2066,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -2109,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -2151,8 +2165,14 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -2194,8 +2214,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -2238,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -2281,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -2324,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>8</v>
       </c>
@@ -2367,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>9</v>
       </c>
@@ -2410,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -2453,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -2496,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -2539,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -2582,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -2625,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -5164,8 +5190,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6188,7 +6214,7 @@
       <c r="B26" s="29">
         <v>171</v>
       </c>
-      <c r="C26" s="1" t="str">
+      <c r="C26" s="43" t="str">
         <f t="shared" si="3"/>
         <v>AB</v>
       </c>
@@ -7441,7 +7467,7 @@
     </row>
     <row r="94" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94">
-        <f t="shared" ref="A94:P94" si="9">2^(12-COLUMN())</f>
+        <f t="shared" ref="A94:I94" si="9">2^(12-COLUMN())</f>
         <v>2048</v>
       </c>
       <c r="B94">
@@ -7520,23 +7546,23 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3">
-        <f>(MOD($B95,2^G$2)-MOD(MOD($B95,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" ref="I95:M99" si="12">(MOD($B95,2^G$2)-MOD(MOD($B95,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
         <v>0</v>
       </c>
       <c r="J95" s="3">
-        <f>(MOD($B95,2^H$2)-MOD(MOD($B95,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K95" s="36">
-        <f>(MOD($B95,2^I$2)-MOD(MOD($B95,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L95" s="3">
-        <f>(MOD($B95,2^J$2)-MOD(MOD($B95,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M95" s="3">
-        <f>(MOD($B95,2^K$2)-MOD(MOD($B95,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7555,23 +7581,23 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3">
-        <f>(MOD($B96,2^G$2)-MOD(MOD($B96,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J96" s="37">
-        <f>(MOD($B96,2^H$2)-MOD(MOD($B96,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K96" s="36">
-        <f>(MOD($B96,2^I$2)-MOD(MOD($B96,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L96" s="3">
-        <f>(MOD($B96,2^J$2)-MOD(MOD($B96,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M96" s="3">
-        <f>(MOD($B96,2^K$2)-MOD(MOD($B96,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7590,23 +7616,23 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3">
-        <f>(MOD($B97,2^G$2)-MOD(MOD($B97,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J97" s="37">
-        <f>(MOD($B97,2^H$2)-MOD(MOD($B97,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K97" s="3">
-        <f>(MOD($B97,2^I$2)-MOD(MOD($B97,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L97" s="3">
-        <f>(MOD($B97,2^J$2)-MOD(MOD($B97,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M97" s="3">
-        <f>(MOD($B97,2^K$2)-MOD(MOD($B97,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7625,23 +7651,23 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="38">
-        <f>(MOD($B98,2^G$2)-MOD(MOD($B98,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J98" s="3">
-        <f>(MOD($B98,2^H$2)-MOD(MOD($B98,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K98" s="3">
-        <f>(MOD($B98,2^I$2)-MOD(MOD($B98,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L98" s="3">
-        <f>(MOD($B98,2^J$2)-MOD(MOD($B98,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M98" s="3">
-        <f>(MOD($B98,2^K$2)-MOD(MOD($B98,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7660,23 +7686,23 @@
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="38">
-        <f>(MOD($B99,2^G$2)-MOD(MOD($B99,2^G$2),2^(G$2-1)))/2^(G$2-1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J99" s="3">
-        <f>(MOD($B99,2^H$2)-MOD(MOD($B99,2^H$2),2^(H$2-1)))/2^(H$2-1)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K99" s="3">
-        <f>(MOD($B99,2^I$2)-MOD(MOD($B99,2^I$2),2^(I$2-1)))/2^(I$2-1)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L99" s="3">
-        <f>(MOD($B99,2^J$2)-MOD(MOD($B99,2^J$2),2^(J$2-1)))/2^(J$2-1)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M99" s="3">
-        <f>(MOD($B99,2^K$2)-MOD(MOD($B99,2^K$2),2^(K$2-1)))/2^(K$2-1)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7943,7 +7969,7 @@
       </c>
       <c r="E132" s="31"/>
       <c r="F132" s="31" t="str">
-        <f t="shared" ref="F132" si="12">MID(D132,2,1)&amp;MID(D132,1,1)&amp;"_"&amp;MID(D132,4,1)&amp;MID(D132,3,1)&amp;"_"&amp;MID(D132,6,1)&amp;MID(D132,5,1)&amp;"_"&amp;MID(D132,8,1)&amp;MID(D132,7,1)&amp;"_"&amp;MID(D132,10,1)&amp;MID(D132,9,1)&amp;"_"&amp;MID(D132,12,1)&amp;MID(D132,11,1)&amp;"_"&amp;MID(D132,14,1)&amp;MID(D132,13,1)&amp;"_0"&amp;MID(D132,15,1)</f>
+        <f t="shared" ref="F132" si="13">MID(D132,2,1)&amp;MID(D132,1,1)&amp;"_"&amp;MID(D132,4,1)&amp;MID(D132,3,1)&amp;"_"&amp;MID(D132,6,1)&amp;MID(D132,5,1)&amp;"_"&amp;MID(D132,8,1)&amp;MID(D132,7,1)&amp;"_"&amp;MID(D132,10,1)&amp;MID(D132,9,1)&amp;"_"&amp;MID(D132,12,1)&amp;MID(D132,11,1)&amp;"_"&amp;MID(D132,14,1)&amp;MID(D132,13,1)&amp;"_0"&amp;MID(D132,15,1)</f>
         <v>64_00_21_43_68_25_87_08</v>
       </c>
       <c r="G132" s="31"/>
